--- a/Alkollü içecekler ve tütün.xlsx
+++ b/Alkollü içecekler ve tütün.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I928"/>
+  <dimension ref="A1:J928"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,7 @@
     <col width="12" customWidth="1" min="7" max="7"/>
     <col width="19" customWidth="1" min="8" max="8"/>
     <col width="12" customWidth="1" min="9" max="9"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -498,6 +499,11 @@
           <t>2025-06-22</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -522,6 +528,9 @@
       <c r="I2" t="n">
         <v>130</v>
       </c>
+      <c r="J2" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -546,6 +555,9 @@
       <c r="I3" t="n">
         <v>70</v>
       </c>
+      <c r="J3" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -570,6 +582,9 @@
       <c r="I4" t="n">
         <v>70</v>
       </c>
+      <c r="J4" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -594,6 +609,9 @@
       <c r="I5" t="n">
         <v>80</v>
       </c>
+      <c r="J5" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -618,6 +636,9 @@
       <c r="I6" t="n">
         <v>96</v>
       </c>
+      <c r="J6" t="n">
+        <v>96</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -642,6 +663,9 @@
       <c r="I7" t="n">
         <v>175</v>
       </c>
+      <c r="J7" t="n">
+        <v>175</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -666,6 +690,9 @@
       <c r="I8" t="n">
         <v>130</v>
       </c>
+      <c r="J8" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -690,6 +717,9 @@
       <c r="I9" t="n">
         <v>75</v>
       </c>
+      <c r="J9" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -714,6 +744,9 @@
       <c r="I10" t="n">
         <v>135</v>
       </c>
+      <c r="J10" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -738,6 +771,9 @@
       <c r="I11" t="n">
         <v>80</v>
       </c>
+      <c r="J11" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -762,6 +798,9 @@
       <c r="I12" t="n">
         <v>75</v>
       </c>
+      <c r="J12" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -786,6 +825,9 @@
       <c r="I13" t="n">
         <v>70</v>
       </c>
+      <c r="J13" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -810,6 +852,9 @@
       <c r="I14" t="n">
         <v>135</v>
       </c>
+      <c r="J14" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -834,6 +879,9 @@
       <c r="I15" t="n">
         <v>135</v>
       </c>
+      <c r="J15" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -858,6 +906,9 @@
       <c r="I16" t="n">
         <v>77</v>
       </c>
+      <c r="J16" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -882,6 +933,9 @@
       <c r="I17" t="n">
         <v>80</v>
       </c>
+      <c r="J17" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -906,6 +960,9 @@
       <c r="I18" t="n">
         <v>145</v>
       </c>
+      <c r="J18" t="n">
+        <v>145</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -930,6 +987,9 @@
       <c r="I19" t="n">
         <v>100</v>
       </c>
+      <c r="J19" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -954,6 +1014,9 @@
       <c r="I20" t="n">
         <v>135</v>
       </c>
+      <c r="J20" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -978,6 +1041,9 @@
       <c r="I21" t="n">
         <v>90</v>
       </c>
+      <c r="J21" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1002,6 +1068,9 @@
       <c r="I22" t="n">
         <v>70</v>
       </c>
+      <c r="J22" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1026,6 +1095,9 @@
       <c r="I23" t="n">
         <v>70</v>
       </c>
+      <c r="J23" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1050,6 +1122,9 @@
       <c r="I24" t="n">
         <v>130</v>
       </c>
+      <c r="J24" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1074,6 +1149,9 @@
       <c r="I25" t="n">
         <v>95</v>
       </c>
+      <c r="J25" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1098,6 +1176,9 @@
       <c r="I26" t="n">
         <v>95</v>
       </c>
+      <c r="J26" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1122,6 +1203,9 @@
       <c r="I27" t="n">
         <v>83</v>
       </c>
+      <c r="J27" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1146,6 +1230,9 @@
       <c r="I28" t="n">
         <v>135</v>
       </c>
+      <c r="J28" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1170,6 +1257,9 @@
       <c r="I29" t="n">
         <v>135</v>
       </c>
+      <c r="J29" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1194,6 +1284,9 @@
       <c r="I30" t="n">
         <v>100</v>
       </c>
+      <c r="J30" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1218,6 +1311,9 @@
       <c r="I31" t="n">
         <v>100</v>
       </c>
+      <c r="J31" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1242,6 +1338,9 @@
       <c r="I32" t="n">
         <v>90</v>
       </c>
+      <c r="J32" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1266,6 +1365,9 @@
       <c r="I33" t="n">
         <v>68</v>
       </c>
+      <c r="J33" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1290,6 +1392,9 @@
       <c r="I34" t="n">
         <v>95</v>
       </c>
+      <c r="J34" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1314,6 +1419,9 @@
       <c r="I35" t="n">
         <v>110</v>
       </c>
+      <c r="J35" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1338,6 +1446,9 @@
       <c r="I36" t="n">
         <v>100</v>
       </c>
+      <c r="J36" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1362,6 +1473,9 @@
       <c r="I37" t="n">
         <v>70</v>
       </c>
+      <c r="J37" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1386,6 +1500,9 @@
       <c r="I38" t="n">
         <v>90</v>
       </c>
+      <c r="J38" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1410,6 +1527,9 @@
       <c r="I39" t="n">
         <v>85</v>
       </c>
+      <c r="J39" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1434,6 +1554,9 @@
       <c r="I40" t="n">
         <v>88</v>
       </c>
+      <c r="J40" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1458,6 +1581,9 @@
       <c r="I41" t="n">
         <v>105</v>
       </c>
+      <c r="J41" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1482,6 +1608,9 @@
       <c r="I42" t="n">
         <v>105</v>
       </c>
+      <c r="J42" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1506,6 +1635,9 @@
       <c r="I43" t="n">
         <v>80</v>
       </c>
+      <c r="J43" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1530,6 +1662,9 @@
       <c r="I44" t="n">
         <v>78</v>
       </c>
+      <c r="J44" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1554,6 +1689,9 @@
       <c r="I45" t="n">
         <v>83</v>
       </c>
+      <c r="J45" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1578,6 +1716,9 @@
       <c r="I46" t="n">
         <v>65</v>
       </c>
+      <c r="J46" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1602,6 +1743,9 @@
       <c r="I47" t="n">
         <v>85</v>
       </c>
+      <c r="J47" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1626,6 +1770,9 @@
       <c r="I48" t="n">
         <v>85</v>
       </c>
+      <c r="J48" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1650,6 +1797,9 @@
       <c r="I49" t="n">
         <v>85</v>
       </c>
+      <c r="J49" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1674,6 +1824,9 @@
       <c r="I50" t="n">
         <v>85</v>
       </c>
+      <c r="J50" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1698,6 +1851,9 @@
       <c r="I51" t="n">
         <v>85</v>
       </c>
+      <c r="J51" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1722,6 +1878,9 @@
       <c r="I52" t="n">
         <v>85</v>
       </c>
+      <c r="J52" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -1746,6 +1905,9 @@
       <c r="I53" t="n">
         <v>110</v>
       </c>
+      <c r="J53" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -1770,6 +1932,9 @@
       <c r="I54" t="n">
         <v>85</v>
       </c>
+      <c r="J54" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -1794,6 +1959,9 @@
       <c r="I55" t="n">
         <v>83</v>
       </c>
+      <c r="J55" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -1818,6 +1986,9 @@
       <c r="I56" t="n">
         <v>90</v>
       </c>
+      <c r="J56" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -1842,6 +2013,9 @@
       <c r="I57" t="n">
         <v>85</v>
       </c>
+      <c r="J57" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -1866,6 +2040,9 @@
       <c r="I58" t="n">
         <v>48</v>
       </c>
+      <c r="J58" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -1890,6 +2067,9 @@
       <c r="I59" t="n">
         <v>90</v>
       </c>
+      <c r="J59" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -1914,6 +2094,9 @@
       <c r="I60" t="n">
         <v>105</v>
       </c>
+      <c r="J60" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -1938,6 +2121,9 @@
       <c r="I61" t="n">
         <v>88</v>
       </c>
+      <c r="J61" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -1962,6 +2148,9 @@
       <c r="I62" t="n">
         <v>79</v>
       </c>
+      <c r="J62" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -1986,6 +2175,9 @@
       <c r="I63" t="n">
         <v>125</v>
       </c>
+      <c r="J63" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -2010,6 +2202,9 @@
       <c r="I64" t="n">
         <v>46</v>
       </c>
+      <c r="J64" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -2034,6 +2229,9 @@
       <c r="I65" t="n">
         <v>88</v>
       </c>
+      <c r="J65" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -2058,6 +2256,9 @@
       <c r="I66" t="n">
         <v>50</v>
       </c>
+      <c r="J66" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -2082,6 +2283,9 @@
       <c r="I67" t="n">
         <v>90</v>
       </c>
+      <c r="J67" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -2106,6 +2310,9 @@
       <c r="I68" t="n">
         <v>95</v>
       </c>
+      <c r="J68" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -2130,6 +2337,9 @@
       <c r="I69" t="n">
         <v>90</v>
       </c>
+      <c r="J69" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -2154,6 +2364,9 @@
       <c r="I70" t="n">
         <v>95</v>
       </c>
+      <c r="J70" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -2178,6 +2391,9 @@
       <c r="I71" t="n">
         <v>90</v>
       </c>
+      <c r="J71" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -2202,6 +2418,9 @@
       <c r="I72" t="n">
         <v>35</v>
       </c>
+      <c r="J72" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -2226,6 +2445,9 @@
       <c r="I73" t="n">
         <v>95</v>
       </c>
+      <c r="J73" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -2250,6 +2472,9 @@
       <c r="I74" t="n">
         <v>869</v>
       </c>
+      <c r="J74" t="n">
+        <v>869</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -2274,6 +2499,9 @@
       <c r="I75" t="n">
         <v>1625</v>
       </c>
+      <c r="J75" t="n">
+        <v>1625</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -2298,6 +2526,9 @@
       <c r="I76" t="n">
         <v>749</v>
       </c>
+      <c r="J76" t="n">
+        <v>749</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -2322,6 +2553,9 @@
       <c r="I77" t="n">
         <v>1495</v>
       </c>
+      <c r="J77" t="n">
+        <v>1495</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -2346,6 +2580,9 @@
       <c r="I78" t="n">
         <v>1400</v>
       </c>
+      <c r="J78" t="n">
+        <v>1400</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -2370,6 +2607,9 @@
       <c r="I79" t="n">
         <v>449</v>
       </c>
+      <c r="J79" t="n">
+        <v>449</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -2394,6 +2634,9 @@
       <c r="I80" t="n">
         <v>1875</v>
       </c>
+      <c r="J80" t="n">
+        <v>1875</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -2418,6 +2661,9 @@
       <c r="I81" t="n">
         <v>1199</v>
       </c>
+      <c r="J81" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -2442,6 +2688,9 @@
       <c r="I82" t="n">
         <v>639</v>
       </c>
+      <c r="J82" t="n">
+        <v>639</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -2466,6 +2715,9 @@
       <c r="I83" t="n">
         <v>949</v>
       </c>
+      <c r="J83" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -2490,6 +2742,9 @@
       <c r="I84" t="n">
         <v>479</v>
       </c>
+      <c r="J84" t="n">
+        <v>479</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -2514,6 +2769,9 @@
       <c r="I85" t="n">
         <v>1495</v>
       </c>
+      <c r="J85" t="n">
+        <v>1495</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -2538,6 +2796,9 @@
       <c r="I86" t="n">
         <v>869</v>
       </c>
+      <c r="J86" t="n">
+        <v>869</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -2562,6 +2823,9 @@
       <c r="I87" t="n">
         <v>1995</v>
       </c>
+      <c r="J87" t="n">
+        <v>1995</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -2586,6 +2850,9 @@
       <c r="I88" t="n">
         <v>1195</v>
       </c>
+      <c r="J88" t="n">
+        <v>1195</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -2610,6 +2877,9 @@
       <c r="I89" t="n">
         <v>925</v>
       </c>
+      <c r="J89" t="n">
+        <v>925</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -2634,6 +2904,9 @@
       <c r="I90" t="n">
         <v>695</v>
       </c>
+      <c r="J90" t="n">
+        <v>695</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -2658,6 +2931,9 @@
       <c r="I91" t="n">
         <v>1419</v>
       </c>
+      <c r="J91" t="n">
+        <v>1419</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -2682,6 +2958,9 @@
       <c r="I92" t="n">
         <v>4500</v>
       </c>
+      <c r="J92" t="n">
+        <v>4500</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -2706,6 +2985,9 @@
       <c r="I93" t="n">
         <v>21500</v>
       </c>
+      <c r="J93" t="n">
+        <v>21500</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -2730,6 +3012,9 @@
       <c r="I94" t="n">
         <v>819</v>
       </c>
+      <c r="J94" t="n">
+        <v>819</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -2754,6 +3039,9 @@
       <c r="I95" t="n">
         <v>489</v>
       </c>
+      <c r="J95" t="n">
+        <v>489</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -2778,6 +3066,9 @@
       <c r="I96" t="n">
         <v>819</v>
       </c>
+      <c r="J96" t="n">
+        <v>819</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -2802,6 +3093,9 @@
       <c r="I97" t="n">
         <v>1300</v>
       </c>
+      <c r="J97" t="n">
+        <v>1300</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -2826,6 +3120,9 @@
       <c r="I98" t="n">
         <v>1545</v>
       </c>
+      <c r="J98" t="n">
+        <v>1545</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -2850,6 +3147,9 @@
       <c r="I99" t="n">
         <v>639</v>
       </c>
+      <c r="J99" t="n">
+        <v>639</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -2874,6 +3174,9 @@
       <c r="I100" t="n">
         <v>859</v>
       </c>
+      <c r="J100" t="n">
+        <v>859</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -2898,6 +3201,9 @@
       <c r="I101" t="n">
         <v>629</v>
       </c>
+      <c r="J101" t="n">
+        <v>629</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -2922,6 +3228,9 @@
       <c r="I102" t="n">
         <v>1045</v>
       </c>
+      <c r="J102" t="n">
+        <v>1045</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -2946,6 +3255,9 @@
       <c r="I103" t="n">
         <v>1900</v>
       </c>
+      <c r="J103" t="n">
+        <v>1900</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -2970,6 +3282,9 @@
       <c r="I104" t="n">
         <v>1450</v>
       </c>
+      <c r="J104" t="n">
+        <v>1450</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -2994,6 +3309,9 @@
       <c r="I105" t="n">
         <v>1199</v>
       </c>
+      <c r="J105" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -3018,6 +3336,9 @@
       <c r="I106" t="n">
         <v>1095</v>
       </c>
+      <c r="J106" t="n">
+        <v>1095</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -3042,6 +3363,9 @@
       <c r="I107" t="n">
         <v>795</v>
       </c>
+      <c r="J107" t="n">
+        <v>795</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -3066,6 +3390,9 @@
       <c r="I108" t="n">
         <v>1850</v>
       </c>
+      <c r="J108" t="n">
+        <v>1850</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -3090,6 +3417,9 @@
       <c r="I109" t="n">
         <v>1050</v>
       </c>
+      <c r="J109" t="n">
+        <v>1050</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -3114,6 +3444,9 @@
       <c r="I110" t="n">
         <v>2475</v>
       </c>
+      <c r="J110" t="n">
+        <v>2475</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -3138,6 +3471,9 @@
       <c r="I111" t="n">
         <v>1490</v>
       </c>
+      <c r="J111" t="n">
+        <v>1490</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -3162,6 +3498,9 @@
       <c r="I112" t="n">
         <v>765</v>
       </c>
+      <c r="J112" t="n">
+        <v>765</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -3186,6 +3525,9 @@
       <c r="I113" t="n">
         <v>879</v>
       </c>
+      <c r="J113" t="n">
+        <v>879</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -3210,6 +3552,9 @@
       <c r="I114" t="n">
         <v>465</v>
       </c>
+      <c r="J114" t="n">
+        <v>465</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -3234,6 +3579,9 @@
       <c r="I115" t="n">
         <v>1825</v>
       </c>
+      <c r="J115" t="n">
+        <v>1825</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -3258,6 +3606,9 @@
       <c r="I116" t="n">
         <v>1275</v>
       </c>
+      <c r="J116" t="n">
+        <v>1275</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -3282,6 +3633,9 @@
       <c r="I117" t="n">
         <v>1795</v>
       </c>
+      <c r="J117" t="n">
+        <v>1795</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -3306,6 +3660,9 @@
       <c r="I118" t="n">
         <v>1350</v>
       </c>
+      <c r="J118" t="n">
+        <v>1350</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -3330,6 +3687,9 @@
       <c r="I119" t="n">
         <v>739</v>
       </c>
+      <c r="J119" t="n">
+        <v>739</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -3354,6 +3714,9 @@
       <c r="I120" t="n">
         <v>1775</v>
       </c>
+      <c r="J120" t="n">
+        <v>1775</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -3378,6 +3741,9 @@
       <c r="I121" t="n">
         <v>1099</v>
       </c>
+      <c r="J121" t="n">
+        <v>1099</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -3402,6 +3768,9 @@
       <c r="I122" t="n">
         <v>1375</v>
       </c>
+      <c r="J122" t="n">
+        <v>1375</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -3426,6 +3795,9 @@
       <c r="I123" t="n">
         <v>649</v>
       </c>
+      <c r="J123" t="n">
+        <v>649</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
@@ -3450,6 +3822,9 @@
       <c r="I124" t="n">
         <v>1295</v>
       </c>
+      <c r="J124" t="n">
+        <v>1295</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
@@ -3474,6 +3849,9 @@
       <c r="I125" t="n">
         <v>1195</v>
       </c>
+      <c r="J125" t="n">
+        <v>1195</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
@@ -3498,6 +3876,9 @@
       <c r="I126" t="n">
         <v>1120</v>
       </c>
+      <c r="J126" t="n">
+        <v>1120</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
@@ -3522,6 +3903,9 @@
       <c r="I127" t="n">
         <v>1550</v>
       </c>
+      <c r="J127" t="n">
+        <v>1550</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
@@ -3546,6 +3930,9 @@
       <c r="I128" t="n">
         <v>1275</v>
       </c>
+      <c r="J128" t="n">
+        <v>1275</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
@@ -3570,6 +3957,9 @@
       <c r="I129" t="n">
         <v>539</v>
       </c>
+      <c r="J129" t="n">
+        <v>539</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -3594,6 +3984,9 @@
       <c r="I130" t="n">
         <v>945</v>
       </c>
+      <c r="J130" t="n">
+        <v>945</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
@@ -3618,6 +4011,9 @@
       <c r="I131" t="n">
         <v>1795</v>
       </c>
+      <c r="J131" t="n">
+        <v>1795</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
@@ -3642,6 +4038,9 @@
       <c r="I132" t="n">
         <v>2695</v>
       </c>
+      <c r="J132" t="n">
+        <v>2695</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
@@ -3666,6 +4065,9 @@
       <c r="I133" t="n">
         <v>8750</v>
       </c>
+      <c r="J133" t="n">
+        <v>8750</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
@@ -3690,6 +4092,9 @@
       <c r="I134" t="n">
         <v>780</v>
       </c>
+      <c r="J134" t="n">
+        <v>780</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
@@ -3714,6 +4119,9 @@
       <c r="I135" t="n">
         <v>1080</v>
       </c>
+      <c r="J135" t="n">
+        <v>1080</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
@@ -3738,6 +4146,9 @@
       <c r="I136" t="n">
         <v>895</v>
       </c>
+      <c r="J136" t="n">
+        <v>895</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
@@ -3762,6 +4173,9 @@
       <c r="I137" t="n">
         <v>1600</v>
       </c>
+      <c r="J137" t="n">
+        <v>1600</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
@@ -3786,6 +4200,9 @@
       <c r="I138" t="n">
         <v>825</v>
       </c>
+      <c r="J138" t="n">
+        <v>825</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
@@ -3810,6 +4227,9 @@
       <c r="I139" t="n">
         <v>1195</v>
       </c>
+      <c r="J139" t="n">
+        <v>1195</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
@@ -3834,6 +4254,9 @@
       <c r="I140" t="n">
         <v>925</v>
       </c>
+      <c r="J140" t="n">
+        <v>925</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
@@ -3858,6 +4281,9 @@
       <c r="I141" t="n">
         <v>629</v>
       </c>
+      <c r="J141" t="n">
+        <v>629</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
@@ -3882,6 +4308,9 @@
       <c r="I142" t="n">
         <v>7500</v>
       </c>
+      <c r="J142" t="n">
+        <v>7500</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
@@ -3906,6 +4335,9 @@
       <c r="I143" t="n">
         <v>2250</v>
       </c>
+      <c r="J143" t="n">
+        <v>2250</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
@@ -3930,6 +4362,9 @@
       <c r="I144" t="n">
         <v>1495</v>
       </c>
+      <c r="J144" t="n">
+        <v>1495</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
@@ -3954,6 +4389,9 @@
       <c r="I145" t="n">
         <v>8800</v>
       </c>
+      <c r="J145" t="n">
+        <v>8800</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
@@ -3978,6 +4416,9 @@
       <c r="I146" t="n">
         <v>6500</v>
       </c>
+      <c r="J146" t="n">
+        <v>6500</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
@@ -4002,6 +4443,9 @@
       <c r="I147" t="n">
         <v>1475</v>
       </c>
+      <c r="J147" t="n">
+        <v>1475</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
@@ -4026,6 +4470,9 @@
       <c r="I148" t="n">
         <v>1545</v>
       </c>
+      <c r="J148" t="n">
+        <v>1545</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
@@ -4050,6 +4497,9 @@
       <c r="I149" t="n">
         <v>1400</v>
       </c>
+      <c r="J149" t="n">
+        <v>1400</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
@@ -4074,6 +4524,9 @@
       <c r="I150" t="n">
         <v>2100</v>
       </c>
+      <c r="J150" t="n">
+        <v>2100</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
@@ -4098,6 +4551,9 @@
       <c r="I151" t="n">
         <v>6350</v>
       </c>
+      <c r="J151" t="n">
+        <v>6350</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
@@ -4122,6 +4578,9 @@
       <c r="I152" t="n">
         <v>1275</v>
       </c>
+      <c r="J152" t="n">
+        <v>1275</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
@@ -4146,6 +4605,9 @@
       <c r="I153" t="n">
         <v>565</v>
       </c>
+      <c r="J153" t="n">
+        <v>565</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
@@ -4170,6 +4632,9 @@
       <c r="I154" t="n">
         <v>725</v>
       </c>
+      <c r="J154" t="n">
+        <v>725</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
@@ -4194,6 +4659,9 @@
       <c r="I155" t="n">
         <v>975</v>
       </c>
+      <c r="J155" t="n">
+        <v>975</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
@@ -4218,6 +4686,9 @@
       <c r="I156" t="n">
         <v>479</v>
       </c>
+      <c r="J156" t="n">
+        <v>479</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
@@ -4242,6 +4713,9 @@
       <c r="I157" t="n">
         <v>509</v>
       </c>
+      <c r="J157" t="n">
+        <v>509</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
@@ -4266,6 +4740,9 @@
       <c r="I158" t="n">
         <v>1495</v>
       </c>
+      <c r="J158" t="n">
+        <v>1495</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
@@ -4290,6 +4767,9 @@
       <c r="I159" t="n">
         <v>709</v>
       </c>
+      <c r="J159" t="n">
+        <v>709</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
@@ -4314,6 +4794,9 @@
       <c r="I160" t="n">
         <v>949</v>
       </c>
+      <c r="J160" t="n">
+        <v>949</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
@@ -4338,6 +4821,9 @@
       <c r="I161" t="n">
         <v>1735</v>
       </c>
+      <c r="J161" t="n">
+        <v>1735</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
@@ -4362,6 +4848,9 @@
       <c r="I162" t="n">
         <v>990</v>
       </c>
+      <c r="J162" t="n">
+        <v>990</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
@@ -4386,6 +4875,9 @@
       <c r="I163" t="n">
         <v>599</v>
       </c>
+      <c r="J163" t="n">
+        <v>599</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
@@ -4410,6 +4902,9 @@
       <c r="I164" t="n">
         <v>1049</v>
       </c>
+      <c r="J164" t="n">
+        <v>1049</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
@@ -4434,6 +4929,9 @@
       <c r="I165" t="n">
         <v>1330</v>
       </c>
+      <c r="J165" t="n">
+        <v>1330</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
@@ -4458,6 +4956,9 @@
       <c r="I166" t="n">
         <v>755</v>
       </c>
+      <c r="J166" t="n">
+        <v>755</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
@@ -4482,6 +4983,9 @@
       <c r="I167" t="n">
         <v>319</v>
       </c>
+      <c r="J167" t="n">
+        <v>319</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
@@ -4506,6 +5010,9 @@
       <c r="I168" t="n">
         <v>699</v>
       </c>
+      <c r="J168" t="n">
+        <v>699</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
@@ -4530,6 +5037,9 @@
       <c r="I169" t="n">
         <v>1559</v>
       </c>
+      <c r="J169" t="n">
+        <v>1559</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
@@ -4554,6 +5064,9 @@
       <c r="I170" t="n">
         <v>1199</v>
       </c>
+      <c r="J170" t="n">
+        <v>1199</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
@@ -4578,6 +5091,9 @@
       <c r="I171" t="n">
         <v>775</v>
       </c>
+      <c r="J171" t="n">
+        <v>775</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
@@ -4602,6 +5118,9 @@
       <c r="I172" t="n">
         <v>575</v>
       </c>
+      <c r="J172" t="n">
+        <v>575</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
@@ -4626,6 +5145,9 @@
       <c r="I173" t="n">
         <v>1295</v>
       </c>
+      <c r="J173" t="n">
+        <v>1295</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
@@ -4650,6 +5172,9 @@
       <c r="I174" t="n">
         <v>1345</v>
       </c>
+      <c r="J174" t="n">
+        <v>1345</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
@@ -4674,6 +5199,9 @@
       <c r="I175" t="n">
         <v>995</v>
       </c>
+      <c r="J175" t="n">
+        <v>995</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
@@ -4698,6 +5226,9 @@
       <c r="I176" t="n">
         <v>87</v>
       </c>
+      <c r="J176" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
@@ -4722,6 +5253,9 @@
       <c r="I177" t="n">
         <v>89</v>
       </c>
+      <c r="J177" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
@@ -4746,6 +5280,9 @@
       <c r="I178" t="n">
         <v>69</v>
       </c>
+      <c r="J178" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
@@ -4770,6 +5307,9 @@
       <c r="I179" t="n">
         <v>69</v>
       </c>
+      <c r="J179" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
@@ -4794,6 +5334,9 @@
       <c r="I180" t="n">
         <v>69</v>
       </c>
+      <c r="J180" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
@@ -4818,6 +5361,9 @@
       <c r="I181" t="n">
         <v>76</v>
       </c>
+      <c r="J181" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
@@ -4842,6 +5388,9 @@
       <c r="I182" t="n">
         <v>81</v>
       </c>
+      <c r="J182" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
@@ -4866,6 +5415,9 @@
       <c r="I183" t="n">
         <v>68</v>
       </c>
+      <c r="J183" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
@@ -4890,6 +5442,9 @@
       <c r="I184" t="n">
         <v>84</v>
       </c>
+      <c r="J184" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
@@ -4914,6 +5469,9 @@
       <c r="I185" t="n">
         <v>71</v>
       </c>
+      <c r="J185" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
@@ -4938,6 +5496,9 @@
       <c r="I186" t="n">
         <v>85</v>
       </c>
+      <c r="J186" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
@@ -4962,6 +5523,9 @@
       <c r="I187" t="n">
         <v>72</v>
       </c>
+      <c r="J187" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
@@ -4986,6 +5550,9 @@
       <c r="I188" t="n">
         <v>72</v>
       </c>
+      <c r="J188" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
@@ -5010,6 +5577,9 @@
       <c r="I189" t="n">
         <v>76</v>
       </c>
+      <c r="J189" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
@@ -5034,6 +5604,9 @@
       <c r="I190" t="n">
         <v>69</v>
       </c>
+      <c r="J190" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
@@ -5058,6 +5631,9 @@
       <c r="I191" t="n">
         <v>88</v>
       </c>
+      <c r="J191" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
@@ -5082,6 +5658,9 @@
       <c r="I192" t="n">
         <v>82</v>
       </c>
+      <c r="J192" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
@@ -5106,6 +5685,9 @@
       <c r="I193" t="n">
         <v>81</v>
       </c>
+      <c r="J193" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
@@ -5130,6 +5712,9 @@
       <c r="I194" t="n">
         <v>81</v>
       </c>
+      <c r="J194" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
@@ -5154,6 +5739,9 @@
       <c r="I195" t="n">
         <v>82</v>
       </c>
+      <c r="J195" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
@@ -5178,6 +5766,9 @@
       <c r="I196" t="n">
         <v>80</v>
       </c>
+      <c r="J196" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
@@ -5202,6 +5793,9 @@
       <c r="I197" t="n">
         <v>81</v>
       </c>
+      <c r="J197" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
@@ -5226,6 +5820,9 @@
       <c r="I198" t="n">
         <v>83</v>
       </c>
+      <c r="J198" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
@@ -5250,6 +5847,9 @@
       <c r="I199" t="n">
         <v>82</v>
       </c>
+      <c r="J199" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
@@ -5274,6 +5874,9 @@
       <c r="I200" t="n">
         <v>81</v>
       </c>
+      <c r="J200" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
@@ -5298,6 +5901,9 @@
       <c r="I201" t="n">
         <v>120</v>
       </c>
+      <c r="J201" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
@@ -5322,6 +5928,9 @@
       <c r="I202" t="n">
         <v>87</v>
       </c>
+      <c r="J202" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
@@ -5346,6 +5955,9 @@
       <c r="I203" t="n">
         <v>85</v>
       </c>
+      <c r="J203" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
@@ -5370,6 +5982,9 @@
       <c r="I204" t="n">
         <v>68</v>
       </c>
+      <c r="J204" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
@@ -5394,6 +6009,9 @@
       <c r="I205" t="n">
         <v>75</v>
       </c>
+      <c r="J205" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
@@ -5418,6 +6036,9 @@
       <c r="I206" t="n">
         <v>68</v>
       </c>
+      <c r="J206" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
@@ -5442,6 +6063,9 @@
       <c r="I207" t="n">
         <v>75</v>
       </c>
+      <c r="J207" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
@@ -5466,6 +6090,9 @@
       <c r="I208" t="n">
         <v>85</v>
       </c>
+      <c r="J208" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
@@ -5490,6 +6117,9 @@
       <c r="I209" t="n">
         <v>80</v>
       </c>
+      <c r="J209" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
@@ -5514,6 +6144,9 @@
       <c r="I210" t="n">
         <v>91</v>
       </c>
+      <c r="J210" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
@@ -5538,6 +6171,9 @@
       <c r="I211" t="n">
         <v>80</v>
       </c>
+      <c r="J211" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
@@ -5562,6 +6198,9 @@
       <c r="I212" t="n">
         <v>81</v>
       </c>
+      <c r="J212" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
@@ -5586,6 +6225,9 @@
       <c r="I213" t="n">
         <v>81</v>
       </c>
+      <c r="J213" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
@@ -5610,6 +6252,9 @@
       <c r="I214" t="n">
         <v>81</v>
       </c>
+      <c r="J214" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
@@ -5634,6 +6279,9 @@
       <c r="I215" t="n">
         <v>79</v>
       </c>
+      <c r="J215" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
@@ -5658,6 +6306,9 @@
       <c r="I216" t="n">
         <v>81</v>
       </c>
+      <c r="J216" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
@@ -5682,6 +6333,9 @@
       <c r="I217" t="n">
         <v>88</v>
       </c>
+      <c r="J217" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
@@ -5706,6 +6360,9 @@
       <c r="I218" t="n">
         <v>81</v>
       </c>
+      <c r="J218" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
@@ -5730,6 +6387,9 @@
       <c r="I219" t="n">
         <v>91</v>
       </c>
+      <c r="J219" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
@@ -5754,6 +6414,9 @@
       <c r="I220" t="n">
         <v>84</v>
       </c>
+      <c r="J220" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
@@ -5778,6 +6441,9 @@
       <c r="I221" t="n">
         <v>75</v>
       </c>
+      <c r="J221" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
@@ -5802,6 +6468,9 @@
       <c r="I222" t="n">
         <v>80</v>
       </c>
+      <c r="J222" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
@@ -5826,6 +6495,9 @@
       <c r="I223" t="n">
         <v>91</v>
       </c>
+      <c r="J223" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
@@ -5850,6 +6522,9 @@
       <c r="I224" t="n">
         <v>80</v>
       </c>
+      <c r="J224" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
@@ -5874,6 +6549,9 @@
       <c r="I225" t="n">
         <v>81</v>
       </c>
+      <c r="J225" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
@@ -5898,6 +6576,9 @@
       <c r="I226" t="n">
         <v>88</v>
       </c>
+      <c r="J226" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
@@ -5922,6 +6603,9 @@
       <c r="I227" t="n">
         <v>79</v>
       </c>
+      <c r="J227" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
@@ -5946,6 +6630,9 @@
       <c r="I228" t="n">
         <v>90</v>
       </c>
+      <c r="J228" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
@@ -5970,6 +6657,9 @@
       <c r="I229" t="n">
         <v>81</v>
       </c>
+      <c r="J229" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
@@ -5994,6 +6684,9 @@
       <c r="I230" t="n">
         <v>91</v>
       </c>
+      <c r="J230" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
@@ -6018,6 +6711,9 @@
       <c r="I231" t="n">
         <v>77</v>
       </c>
+      <c r="J231" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
@@ -6042,6 +6738,9 @@
       <c r="I232" t="n">
         <v>77</v>
       </c>
+      <c r="J232" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
@@ -6066,6 +6765,9 @@
       <c r="I233" t="n">
         <v>81</v>
       </c>
+      <c r="J233" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
@@ -6090,6 +6792,9 @@
       <c r="I234" t="n">
         <v>195</v>
       </c>
+      <c r="J234" t="n">
+        <v>195</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
@@ -6114,6 +6819,9 @@
       <c r="I235" t="n">
         <v>78</v>
       </c>
+      <c r="J235" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
@@ -6138,6 +6846,9 @@
       <c r="I236" t="n">
         <v>69</v>
       </c>
+      <c r="J236" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
@@ -6162,6 +6873,9 @@
       <c r="I237" t="n">
         <v>89</v>
       </c>
+      <c r="J237" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
@@ -6186,6 +6900,9 @@
       <c r="I238" t="n">
         <v>69</v>
       </c>
+      <c r="J238" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
@@ -6210,6 +6927,9 @@
       <c r="I239" t="n">
         <v>69</v>
       </c>
+      <c r="J239" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
@@ -6234,6 +6954,9 @@
       <c r="I240" t="n">
         <v>69</v>
       </c>
+      <c r="J240" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
@@ -6258,6 +6981,9 @@
       <c r="I241" t="n">
         <v>68</v>
       </c>
+      <c r="J241" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
@@ -6282,6 +7008,9 @@
       <c r="I242" t="n">
         <v>82</v>
       </c>
+      <c r="J242" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
@@ -6306,6 +7035,9 @@
       <c r="I243" t="n">
         <v>88</v>
       </c>
+      <c r="J243" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
@@ -6330,6 +7062,9 @@
       <c r="I244" t="n">
         <v>69</v>
       </c>
+      <c r="J244" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
@@ -6354,6 +7089,9 @@
       <c r="I245" t="n">
         <v>3600</v>
       </c>
+      <c r="J245" t="n">
+        <v>3600</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
@@ -6378,6 +7116,9 @@
       <c r="I246" t="n">
         <v>5500</v>
       </c>
+      <c r="J246" t="n">
+        <v>5500</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
@@ -6402,6 +7143,9 @@
       <c r="I247" t="n">
         <v>1950</v>
       </c>
+      <c r="J247" t="n">
+        <v>1950</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
@@ -6426,6 +7170,9 @@
       <c r="I248" t="n">
         <v>2100</v>
       </c>
+      <c r="J248" t="n">
+        <v>2100</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
@@ -6450,6 +7197,9 @@
       <c r="I249" t="n">
         <v>1700</v>
       </c>
+      <c r="J249" t="n">
+        <v>1700</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
@@ -6474,6 +7224,9 @@
       <c r="I250" t="n">
         <v>1650</v>
       </c>
+      <c r="J250" t="n">
+        <v>1650</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
@@ -6498,6 +7251,9 @@
       <c r="I251" t="n">
         <v>475</v>
       </c>
+      <c r="J251" t="n">
+        <v>475</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
@@ -6522,6 +7278,9 @@
       <c r="I252" t="n">
         <v>1700</v>
       </c>
+      <c r="J252" t="n">
+        <v>1700</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
@@ -6546,6 +7305,9 @@
       <c r="I253" t="n">
         <v>2250</v>
       </c>
+      <c r="J253" t="n">
+        <v>2250</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
@@ -6570,6 +7332,9 @@
       <c r="I254" t="n">
         <v>2450</v>
       </c>
+      <c r="J254" t="n">
+        <v>2450</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
@@ -6594,6 +7359,9 @@
       <c r="I255" t="n">
         <v>1250</v>
       </c>
+      <c r="J255" t="n">
+        <v>1250</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
@@ -6618,6 +7386,9 @@
       <c r="I256" t="n">
         <v>2650</v>
       </c>
+      <c r="J256" t="n">
+        <v>2650</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
@@ -6642,6 +7413,9 @@
       <c r="I257" t="n">
         <v>2650</v>
       </c>
+      <c r="J257" t="n">
+        <v>2650</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
@@ -6666,6 +7440,9 @@
       <c r="I258" t="n">
         <v>12000</v>
       </c>
+      <c r="J258" t="n">
+        <v>12000</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
@@ -6690,6 +7467,9 @@
       <c r="I259" t="n">
         <v>5200</v>
       </c>
+      <c r="J259" t="n">
+        <v>5200</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
@@ -6714,6 +7494,9 @@
       <c r="I260" t="n">
         <v>2250</v>
       </c>
+      <c r="J260" t="n">
+        <v>2250</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
@@ -6738,6 +7521,9 @@
       <c r="I261" t="n">
         <v>4650</v>
       </c>
+      <c r="J261" t="n">
+        <v>4650</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
@@ -6762,6 +7548,9 @@
       <c r="I262" t="n">
         <v>2100</v>
       </c>
+      <c r="J262" t="n">
+        <v>2100</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
@@ -6786,6 +7575,9 @@
       <c r="I263" t="n">
         <v>1795</v>
       </c>
+      <c r="J263" t="n">
+        <v>1795</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
@@ -6810,6 +7602,9 @@
       <c r="I264" t="n">
         <v>2400</v>
       </c>
+      <c r="J264" t="n">
+        <v>2400</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
@@ -6834,6 +7629,9 @@
       <c r="I265" t="n">
         <v>890</v>
       </c>
+      <c r="J265" t="n">
+        <v>890</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
@@ -6858,6 +7656,9 @@
       <c r="I266" t="n">
         <v>2300</v>
       </c>
+      <c r="J266" t="n">
+        <v>2300</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
@@ -6882,6 +7683,9 @@
       <c r="I267" t="n">
         <v>2750</v>
       </c>
+      <c r="J267" t="n">
+        <v>2750</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
@@ -6906,6 +7710,9 @@
       <c r="I268" t="n">
         <v>13000</v>
       </c>
+      <c r="J268" t="n">
+        <v>13000</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
@@ -6930,6 +7737,9 @@
       <c r="I269" t="n">
         <v>650</v>
       </c>
+      <c r="J269" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
@@ -6954,6 +7764,9 @@
       <c r="I270" t="n">
         <v>1800</v>
       </c>
+      <c r="J270" t="n">
+        <v>1800</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="inlineStr">
@@ -6978,6 +7791,9 @@
       <c r="I271" t="n">
         <v>520</v>
       </c>
+      <c r="J271" t="n">
+        <v>520</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
@@ -7002,6 +7818,9 @@
       <c r="I272" t="n">
         <v>950</v>
       </c>
+      <c r="J272" t="n">
+        <v>950</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
@@ -7026,6 +7845,9 @@
       <c r="I273" t="n">
         <v>700</v>
       </c>
+      <c r="J273" t="n">
+        <v>700</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
@@ -7050,6 +7872,9 @@
       <c r="I274" t="n">
         <v>375</v>
       </c>
+      <c r="J274" t="n">
+        <v>375</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
@@ -7074,6 +7899,9 @@
       <c r="I275" t="n">
         <v>6500</v>
       </c>
+      <c r="J275" t="n">
+        <v>6500</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
@@ -7098,6 +7926,9 @@
       <c r="I276" t="n">
         <v>4600</v>
       </c>
+      <c r="J276" t="n">
+        <v>4600</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
@@ -7122,6 +7953,9 @@
       <c r="I277" t="n">
         <v>2750</v>
       </c>
+      <c r="J277" t="n">
+        <v>2750</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
@@ -7146,6 +7980,9 @@
       <c r="I278" t="n">
         <v>1075</v>
       </c>
+      <c r="J278" t="n">
+        <v>1075</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
@@ -7170,6 +8007,9 @@
       <c r="I279" t="n">
         <v>825</v>
       </c>
+      <c r="J279" t="n">
+        <v>825</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
@@ -7194,6 +8034,9 @@
       <c r="I280" t="n">
         <v>595</v>
       </c>
+      <c r="J280" t="n">
+        <v>595</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
@@ -7218,6 +8061,9 @@
       <c r="I281" t="n">
         <v>4950</v>
       </c>
+      <c r="J281" t="n">
+        <v>4950</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
@@ -7242,6 +8088,9 @@
       <c r="I282" t="n">
         <v>2650</v>
       </c>
+      <c r="J282" t="n">
+        <v>2650</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
@@ -7266,6 +8115,9 @@
       <c r="I283" t="n">
         <v>2300</v>
       </c>
+      <c r="J283" t="n">
+        <v>2300</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
@@ -7290,6 +8142,9 @@
       <c r="I284" t="n">
         <v>1500</v>
       </c>
+      <c r="J284" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
@@ -7314,6 +8169,9 @@
       <c r="I285" t="n">
         <v>520</v>
       </c>
+      <c r="J285" t="n">
+        <v>520</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
@@ -7338,6 +8196,9 @@
       <c r="I286" t="n">
         <v>3050</v>
       </c>
+      <c r="J286" t="n">
+        <v>3050</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
@@ -7362,6 +8223,9 @@
       <c r="I287" t="n">
         <v>700</v>
       </c>
+      <c r="J287" t="n">
+        <v>700</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
@@ -7386,6 +8250,9 @@
       <c r="I288" t="n">
         <v>3750</v>
       </c>
+      <c r="J288" t="n">
+        <v>3750</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
@@ -7410,6 +8277,9 @@
       <c r="I289" t="n">
         <v>6750</v>
       </c>
+      <c r="J289" t="n">
+        <v>6750</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
@@ -7434,6 +8304,9 @@
       <c r="I290" t="n">
         <v>2300</v>
       </c>
+      <c r="J290" t="n">
+        <v>2300</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
@@ -7458,6 +8331,9 @@
       <c r="I291" t="n">
         <v>1725</v>
       </c>
+      <c r="J291" t="n">
+        <v>1725</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
@@ -7482,6 +8358,9 @@
       <c r="I292" t="n">
         <v>2300</v>
       </c>
+      <c r="J292" t="n">
+        <v>2300</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
@@ -7506,6 +8385,9 @@
       <c r="I293" t="n">
         <v>1290</v>
       </c>
+      <c r="J293" t="n">
+        <v>1290</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
@@ -7530,6 +8412,9 @@
       <c r="I294" t="n">
         <v>6750</v>
       </c>
+      <c r="J294" t="n">
+        <v>6750</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
@@ -7554,6 +8439,9 @@
       <c r="I295" t="n">
         <v>2950</v>
       </c>
+      <c r="J295" t="n">
+        <v>2950</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
@@ -7578,6 +8466,9 @@
       <c r="I296" t="n">
         <v>1995</v>
       </c>
+      <c r="J296" t="n">
+        <v>1995</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
@@ -7602,6 +8493,9 @@
       <c r="I297" t="n">
         <v>825</v>
       </c>
+      <c r="J297" t="n">
+        <v>825</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
@@ -7626,6 +8520,9 @@
       <c r="I298" t="n">
         <v>3250</v>
       </c>
+      <c r="J298" t="n">
+        <v>3250</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
@@ -7650,6 +8547,9 @@
       <c r="I299" t="n">
         <v>20000</v>
       </c>
+      <c r="J299" t="n">
+        <v>20000</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
@@ -7674,6 +8574,9 @@
       <c r="I300" t="n">
         <v>700</v>
       </c>
+      <c r="J300" t="n">
+        <v>700</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
@@ -7698,6 +8601,9 @@
       <c r="I301" t="n">
         <v>1095</v>
       </c>
+      <c r="J301" t="n">
+        <v>1095</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
@@ -7722,6 +8628,9 @@
       <c r="I302" t="n">
         <v>1495</v>
       </c>
+      <c r="J302" t="n">
+        <v>1495</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
@@ -7746,6 +8655,9 @@
       <c r="I303" t="n">
         <v>1150</v>
       </c>
+      <c r="J303" t="n">
+        <v>1150</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
@@ -7770,6 +8682,9 @@
       <c r="I304" t="n">
         <v>600</v>
       </c>
+      <c r="J304" t="n">
+        <v>600</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
@@ -7794,6 +8709,9 @@
       <c r="I305" t="n">
         <v>1095</v>
       </c>
+      <c r="J305" t="n">
+        <v>1095</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
@@ -7818,6 +8736,9 @@
       <c r="I306" t="n">
         <v>1495</v>
       </c>
+      <c r="J306" t="n">
+        <v>1495</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
@@ -7842,6 +8763,9 @@
       <c r="I307" t="n">
         <v>1495</v>
       </c>
+      <c r="J307" t="n">
+        <v>1495</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
@@ -7866,6 +8790,9 @@
       <c r="I308" t="n">
         <v>2450</v>
       </c>
+      <c r="J308" t="n">
+        <v>2450</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
@@ -7890,6 +8817,9 @@
       <c r="I309" t="n">
         <v>1850</v>
       </c>
+      <c r="J309" t="n">
+        <v>1850</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
@@ -7914,6 +8844,9 @@
       <c r="I310" t="n">
         <v>1450</v>
       </c>
+      <c r="J310" t="n">
+        <v>1450</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
@@ -7938,6 +8871,9 @@
       <c r="I311" t="n">
         <v>800</v>
       </c>
+      <c r="J311" t="n">
+        <v>800</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
@@ -7962,6 +8898,9 @@
       <c r="I312" t="n">
         <v>1375</v>
       </c>
+      <c r="J312" t="n">
+        <v>1375</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
@@ -7986,6 +8925,9 @@
       <c r="I313" t="n">
         <v>2950</v>
       </c>
+      <c r="J313" t="n">
+        <v>2950</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
@@ -8010,6 +8952,9 @@
       <c r="I314" t="n">
         <v>2750</v>
       </c>
+      <c r="J314" t="n">
+        <v>2750</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="inlineStr">
@@ -8034,6 +8979,9 @@
       <c r="I315" t="n">
         <v>1495</v>
       </c>
+      <c r="J315" t="n">
+        <v>1495</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="inlineStr">
@@ -8058,6 +9006,9 @@
       <c r="I316" t="n">
         <v>3500</v>
       </c>
+      <c r="J316" t="n">
+        <v>3500</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="inlineStr">
@@ -8082,6 +9033,9 @@
       <c r="I317" t="n">
         <v>10000</v>
       </c>
+      <c r="J317" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="inlineStr">
@@ -8106,6 +9060,9 @@
       <c r="I318" t="n">
         <v>945</v>
       </c>
+      <c r="J318" t="n">
+        <v>945</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="inlineStr">
@@ -8130,6 +9087,9 @@
       <c r="I319" t="n">
         <v>700</v>
       </c>
+      <c r="J319" t="n">
+        <v>700</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="inlineStr">
@@ -8154,6 +9114,9 @@
       <c r="I320" t="n">
         <v>5350</v>
       </c>
+      <c r="J320" t="n">
+        <v>5350</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
@@ -8178,6 +9141,9 @@
       <c r="I321" t="n">
         <v>3050</v>
       </c>
+      <c r="J321" t="n">
+        <v>3050</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
@@ -8202,6 +9168,9 @@
       <c r="I322" t="n">
         <v>1775</v>
       </c>
+      <c r="J322" t="n">
+        <v>1775</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="inlineStr">
@@ -8226,6 +9195,9 @@
       <c r="I323" t="n">
         <v>2600</v>
       </c>
+      <c r="J323" t="n">
+        <v>2600</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="inlineStr">
@@ -8250,6 +9222,9 @@
       <c r="I324" t="n">
         <v>2500</v>
       </c>
+      <c r="J324" t="n">
+        <v>2500</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="inlineStr">
@@ -8274,6 +9249,9 @@
       <c r="I325" t="n">
         <v>6750</v>
       </c>
+      <c r="J325" t="n">
+        <v>6750</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="inlineStr">
@@ -8298,6 +9276,9 @@
       <c r="I326" t="n">
         <v>3550</v>
       </c>
+      <c r="J326" t="n">
+        <v>3550</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="inlineStr">
@@ -8322,6 +9303,9 @@
       <c r="I327" t="n">
         <v>2250</v>
       </c>
+      <c r="J327" t="n">
+        <v>2250</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="inlineStr">
@@ -8346,6 +9330,9 @@
       <c r="I328" t="n">
         <v>1290</v>
       </c>
+      <c r="J328" t="n">
+        <v>1290</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="inlineStr">
@@ -8370,6 +9357,9 @@
       <c r="I329" t="n">
         <v>700</v>
       </c>
+      <c r="J329" t="n">
+        <v>700</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="inlineStr">
@@ -8394,6 +9384,9 @@
       <c r="I330" t="n">
         <v>1775</v>
       </c>
+      <c r="J330" t="n">
+        <v>1775</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="inlineStr">
@@ -8418,6 +9411,9 @@
       <c r="I331" t="n">
         <v>1290</v>
       </c>
+      <c r="J331" t="n">
+        <v>1290</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="inlineStr">
@@ -8442,6 +9438,9 @@
       <c r="I332" t="n">
         <v>700</v>
       </c>
+      <c r="J332" t="n">
+        <v>700</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="inlineStr">
@@ -8466,6 +9465,9 @@
       <c r="I333" t="n">
         <v>1775</v>
       </c>
+      <c r="J333" t="n">
+        <v>1775</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="inlineStr">
@@ -8490,6 +9492,9 @@
       <c r="I334" t="n">
         <v>1775</v>
       </c>
+      <c r="J334" t="n">
+        <v>1775</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="inlineStr">
@@ -8514,6 +9519,9 @@
       <c r="I335" t="n">
         <v>1275</v>
       </c>
+      <c r="J335" t="n">
+        <v>1275</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="inlineStr">
@@ -8538,6 +9546,9 @@
       <c r="I336" t="n">
         <v>1495</v>
       </c>
+      <c r="J336" t="n">
+        <v>1495</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="inlineStr">
@@ -8562,6 +9573,9 @@
       <c r="I337" t="n">
         <v>1095</v>
       </c>
+      <c r="J337" t="n">
+        <v>1095</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="inlineStr">
@@ -8586,6 +9600,9 @@
       <c r="I338" t="n">
         <v>1950</v>
       </c>
+      <c r="J338" t="n">
+        <v>1950</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="inlineStr">
@@ -8610,6 +9627,9 @@
       <c r="I339" t="n">
         <v>1650</v>
       </c>
+      <c r="J339" t="n">
+        <v>1650</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="inlineStr">
@@ -8634,6 +9654,9 @@
       <c r="I340" t="n">
         <v>5500</v>
       </c>
+      <c r="J340" t="n">
+        <v>5500</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="inlineStr">
@@ -8658,6 +9681,9 @@
       <c r="I341" t="n">
         <v>2750</v>
       </c>
+      <c r="J341" t="n">
+        <v>2750</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="inlineStr">
@@ -8682,6 +9708,9 @@
       <c r="I342" t="n">
         <v>950</v>
       </c>
+      <c r="J342" t="n">
+        <v>950</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="inlineStr">
@@ -8706,6 +9735,9 @@
       <c r="I343" t="n">
         <v>740</v>
       </c>
+      <c r="J343" t="n">
+        <v>740</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="inlineStr">
@@ -8730,6 +9762,9 @@
       <c r="I344" t="n">
         <v>525</v>
       </c>
+      <c r="J344" t="n">
+        <v>525</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="inlineStr">
@@ -8754,6 +9789,9 @@
       <c r="I345" t="n">
         <v>1350</v>
       </c>
+      <c r="J345" t="n">
+        <v>1350</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="inlineStr">
@@ -8778,6 +9816,9 @@
       <c r="I346" t="n">
         <v>1290</v>
       </c>
+      <c r="J346" t="n">
+        <v>1290</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="inlineStr">
@@ -8802,6 +9843,9 @@
       <c r="I347" t="n">
         <v>2550</v>
       </c>
+      <c r="J347" t="n">
+        <v>2550</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="inlineStr">
@@ -8826,6 +9870,9 @@
       <c r="I348" t="n">
         <v>1250</v>
       </c>
+      <c r="J348" t="n">
+        <v>1250</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="inlineStr">
@@ -8850,6 +9897,9 @@
       <c r="I349" t="n">
         <v>2525</v>
       </c>
+      <c r="J349" t="n">
+        <v>2525</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="inlineStr">
@@ -8874,6 +9924,9 @@
       <c r="I350" t="n">
         <v>2450</v>
       </c>
+      <c r="J350" t="n">
+        <v>2450</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="inlineStr">
@@ -8898,6 +9951,9 @@
       <c r="I351" t="n">
         <v>4575</v>
       </c>
+      <c r="J351" t="n">
+        <v>4575</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="inlineStr">
@@ -8922,6 +9978,9 @@
       <c r="I352" t="n">
         <v>950</v>
       </c>
+      <c r="J352" t="n">
+        <v>950</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="inlineStr">
@@ -8946,6 +10005,9 @@
       <c r="I353" t="n">
         <v>850</v>
       </c>
+      <c r="J353" t="n">
+        <v>850</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="inlineStr">
@@ -8970,6 +10032,9 @@
       <c r="I354" t="n">
         <v>4950</v>
       </c>
+      <c r="J354" t="n">
+        <v>4950</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="inlineStr">
@@ -8994,6 +10059,9 @@
       <c r="I355" t="n">
         <v>825</v>
       </c>
+      <c r="J355" t="n">
+        <v>825</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="inlineStr">
@@ -9018,6 +10086,9 @@
       <c r="I356" t="n">
         <v>625</v>
       </c>
+      <c r="J356" t="n">
+        <v>625</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="inlineStr">
@@ -9042,6 +10113,9 @@
       <c r="I357" t="n">
         <v>445</v>
       </c>
+      <c r="J357" t="n">
+        <v>445</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="inlineStr">
@@ -9066,6 +10140,9 @@
       <c r="I358" t="n">
         <v>1790</v>
       </c>
+      <c r="J358" t="n">
+        <v>1790</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="inlineStr">
@@ -9090,6 +10167,9 @@
       <c r="I359" t="n">
         <v>1125</v>
       </c>
+      <c r="J359" t="n">
+        <v>1125</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="inlineStr">
@@ -9114,6 +10194,9 @@
       <c r="I360" t="n">
         <v>2225</v>
       </c>
+      <c r="J360" t="n">
+        <v>2225</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="inlineStr">
@@ -9138,6 +10221,9 @@
       <c r="I361" t="n">
         <v>6950</v>
       </c>
+      <c r="J361" t="n">
+        <v>6950</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="inlineStr">
@@ -9162,6 +10248,9 @@
       <c r="I362" t="n">
         <v>1950</v>
       </c>
+      <c r="J362" t="n">
+        <v>1950</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="inlineStr">
@@ -9186,6 +10275,9 @@
       <c r="I363" t="n">
         <v>5850</v>
       </c>
+      <c r="J363" t="n">
+        <v>5850</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="inlineStr">
@@ -9210,6 +10302,9 @@
       <c r="I364" t="n">
         <v>1400</v>
       </c>
+      <c r="J364" t="n">
+        <v>1400</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="inlineStr">
@@ -9234,6 +10329,9 @@
       <c r="I365" t="n">
         <v>2100</v>
       </c>
+      <c r="J365" t="n">
+        <v>2100</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="inlineStr">
@@ -9258,6 +10356,9 @@
       <c r="I366" t="n">
         <v>569</v>
       </c>
+      <c r="J366" t="n">
+        <v>569</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="inlineStr">
@@ -9282,6 +10383,9 @@
       <c r="I367" t="n">
         <v>11500</v>
       </c>
+      <c r="J367" t="n">
+        <v>11500</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="inlineStr">
@@ -9306,6 +10410,9 @@
       <c r="I368" t="n">
         <v>1550</v>
       </c>
+      <c r="J368" t="n">
+        <v>1550</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="inlineStr">
@@ -9330,6 +10437,9 @@
       <c r="I369" t="n">
         <v>1075</v>
       </c>
+      <c r="J369" t="n">
+        <v>1075</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="inlineStr">
@@ -9354,6 +10464,9 @@
       <c r="I370" t="n">
         <v>2000</v>
       </c>
+      <c r="J370" t="n">
+        <v>2000</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="inlineStr">
@@ -9378,6 +10491,9 @@
       <c r="I371" t="n">
         <v>1250</v>
       </c>
+      <c r="J371" t="n">
+        <v>1250</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="inlineStr">
@@ -9402,6 +10518,9 @@
       <c r="I372" t="n">
         <v>1850</v>
       </c>
+      <c r="J372" t="n">
+        <v>1850</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="inlineStr">
@@ -9426,6 +10545,9 @@
       <c r="I373" t="n">
         <v>2950</v>
       </c>
+      <c r="J373" t="n">
+        <v>2950</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="inlineStr">
@@ -9450,6 +10572,9 @@
       <c r="I374" t="n">
         <v>250</v>
       </c>
+      <c r="J374" t="n">
+        <v>250</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="inlineStr">
@@ -9474,6 +10599,9 @@
       <c r="I375" t="n">
         <v>9000</v>
       </c>
+      <c r="J375" t="n">
+        <v>9000</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="inlineStr">
@@ -9498,6 +10626,9 @@
       <c r="I376" t="n">
         <v>8500</v>
       </c>
+      <c r="J376" t="n">
+        <v>8500</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="inlineStr">
@@ -9522,6 +10653,9 @@
       <c r="I377" t="n">
         <v>2800</v>
       </c>
+      <c r="J377" t="n">
+        <v>2800</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="inlineStr">
@@ -9546,6 +10680,9 @@
       <c r="I378" t="n">
         <v>18500</v>
       </c>
+      <c r="J378" t="n">
+        <v>18500</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="inlineStr">
@@ -9570,6 +10707,9 @@
       <c r="I379" t="n">
         <v>3250</v>
       </c>
+      <c r="J379" t="n">
+        <v>3250</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="inlineStr">
@@ -9594,6 +10734,9 @@
       <c r="I380" t="n">
         <v>2450</v>
       </c>
+      <c r="J380" t="n">
+        <v>2450</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="inlineStr">
@@ -9618,6 +10761,9 @@
       <c r="I381" t="n">
         <v>825</v>
       </c>
+      <c r="J381" t="n">
+        <v>825</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="inlineStr">
@@ -9642,6 +10788,9 @@
       <c r="I382" t="n">
         <v>1550</v>
       </c>
+      <c r="J382" t="n">
+        <v>1550</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="inlineStr">
@@ -9666,6 +10815,9 @@
       <c r="I383" t="n">
         <v>1175</v>
       </c>
+      <c r="J383" t="n">
+        <v>1175</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="inlineStr">
@@ -9690,6 +10842,9 @@
       <c r="I384" t="n">
         <v>1990</v>
       </c>
+      <c r="J384" t="n">
+        <v>1990</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="inlineStr">
@@ -9714,6 +10869,9 @@
       <c r="I385" t="n">
         <v>1475</v>
       </c>
+      <c r="J385" t="n">
+        <v>1475</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="inlineStr">
@@ -9738,6 +10896,9 @@
       <c r="I386" t="n">
         <v>3500</v>
       </c>
+      <c r="J386" t="n">
+        <v>3500</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="inlineStr">
@@ -9762,6 +10923,9 @@
       <c r="I387" t="n">
         <v>1190</v>
       </c>
+      <c r="J387" t="n">
+        <v>1190</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="inlineStr">
@@ -9786,6 +10950,9 @@
       <c r="I388" t="n">
         <v>2100</v>
       </c>
+      <c r="J388" t="n">
+        <v>2100</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="inlineStr">
@@ -9810,6 +10977,9 @@
       <c r="I389" t="n">
         <v>2300</v>
       </c>
+      <c r="J389" t="n">
+        <v>2300</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="inlineStr">
@@ -9834,6 +11004,9 @@
       <c r="I390" t="n">
         <v>6900</v>
       </c>
+      <c r="J390" t="n">
+        <v>6900</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="inlineStr">
@@ -9858,6 +11031,9 @@
       <c r="I391" t="n">
         <v>1175</v>
       </c>
+      <c r="J391" t="n">
+        <v>1175</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="inlineStr">
@@ -9882,6 +11058,9 @@
       <c r="I392" t="n">
         <v>2700</v>
       </c>
+      <c r="J392" t="n">
+        <v>2700</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="inlineStr">
@@ -9906,6 +11085,9 @@
       <c r="I393" t="n">
         <v>2150</v>
       </c>
+      <c r="J393" t="n">
+        <v>2150</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="inlineStr">
@@ -9930,6 +11112,9 @@
       <c r="I394" t="n">
         <v>4000</v>
       </c>
+      <c r="J394" t="n">
+        <v>4000</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="inlineStr">
@@ -9954,6 +11139,9 @@
       <c r="I395" t="n">
         <v>11900</v>
       </c>
+      <c r="J395" t="n">
+        <v>11900</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="inlineStr">
@@ -9978,6 +11166,9 @@
       <c r="I396" t="n">
         <v>5900</v>
       </c>
+      <c r="J396" t="n">
+        <v>5900</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="inlineStr">
@@ -10002,6 +11193,9 @@
       <c r="I397" t="n">
         <v>2950</v>
       </c>
+      <c r="J397" t="n">
+        <v>2950</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="inlineStr">
@@ -10026,6 +11220,9 @@
       <c r="I398" t="n">
         <v>1075</v>
       </c>
+      <c r="J398" t="n">
+        <v>1075</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="inlineStr">
@@ -10050,6 +11247,9 @@
       <c r="I399" t="n">
         <v>2125</v>
       </c>
+      <c r="J399" t="n">
+        <v>2125</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="inlineStr">
@@ -10074,6 +11274,9 @@
       <c r="I400" t="n">
         <v>7950</v>
       </c>
+      <c r="J400" t="n">
+        <v>7950</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="inlineStr">
@@ -10098,6 +11301,9 @@
       <c r="I401" t="n">
         <v>3400</v>
       </c>
+      <c r="J401" t="n">
+        <v>3400</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="inlineStr">
@@ -10122,6 +11328,9 @@
       <c r="I402" t="n">
         <v>2250</v>
       </c>
+      <c r="J402" t="n">
+        <v>2250</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="inlineStr">
@@ -10146,6 +11355,9 @@
       <c r="I403" t="n">
         <v>999</v>
       </c>
+      <c r="J403" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="inlineStr">
@@ -10170,6 +11382,9 @@
       <c r="I404" t="n">
         <v>789</v>
       </c>
+      <c r="J404" t="n">
+        <v>789</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="inlineStr">
@@ -10194,6 +11409,9 @@
       <c r="I405" t="n">
         <v>569</v>
       </c>
+      <c r="J405" t="n">
+        <v>569</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="inlineStr">
@@ -10218,6 +11436,9 @@
       <c r="I406" t="n">
         <v>1400</v>
       </c>
+      <c r="J406" t="n">
+        <v>1400</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="inlineStr">
@@ -10242,6 +11463,9 @@
       <c r="I407" t="n">
         <v>789</v>
       </c>
+      <c r="J407" t="n">
+        <v>789</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="inlineStr">
@@ -10266,6 +11490,9 @@
       <c r="I408" t="n">
         <v>999</v>
       </c>
+      <c r="J408" t="n">
+        <v>999</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="inlineStr">
@@ -10290,6 +11517,9 @@
       <c r="I409" t="n">
         <v>2250</v>
       </c>
+      <c r="J409" t="n">
+        <v>2250</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="inlineStr">
@@ -10314,6 +11544,9 @@
       <c r="I410" t="n">
         <v>1290</v>
       </c>
+      <c r="J410" t="n">
+        <v>1290</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="inlineStr">
@@ -10338,6 +11571,9 @@
       <c r="I411" t="n">
         <v>1500</v>
       </c>
+      <c r="J411" t="n">
+        <v>1500</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="inlineStr">
@@ -10362,6 +11598,9 @@
       <c r="I412" t="n">
         <v>375</v>
       </c>
+      <c r="J412" t="n">
+        <v>375</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="inlineStr">
@@ -10386,6 +11625,9 @@
       <c r="I413" t="n">
         <v>1850</v>
       </c>
+      <c r="J413" t="n">
+        <v>1850</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="inlineStr">
@@ -10410,6 +11652,9 @@
       <c r="I414" t="n">
         <v>2250</v>
       </c>
+      <c r="J414" t="n">
+        <v>2250</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="inlineStr">
@@ -10434,6 +11679,9 @@
       <c r="I415" t="n">
         <v>45000</v>
       </c>
+      <c r="J415" t="n">
+        <v>45000</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="inlineStr">
@@ -10458,6 +11706,9 @@
       <c r="I416" t="n">
         <v>3950</v>
       </c>
+      <c r="J416" t="n">
+        <v>3950</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="inlineStr">
@@ -10482,6 +11733,9 @@
       <c r="I417" t="n">
         <v>4950</v>
       </c>
+      <c r="J417" t="n">
+        <v>4950</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="inlineStr">
@@ -10506,6 +11760,9 @@
       <c r="I418" t="n">
         <v>2750</v>
       </c>
+      <c r="J418" t="n">
+        <v>2750</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="inlineStr">
@@ -10530,6 +11787,9 @@
       <c r="I419" t="n">
         <v>925</v>
       </c>
+      <c r="J419" t="n">
+        <v>925</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="inlineStr">
@@ -10554,6 +11814,9 @@
       <c r="I420" t="n">
         <v>650</v>
       </c>
+      <c r="J420" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="inlineStr">
@@ -10578,6 +11841,9 @@
       <c r="I421" t="n">
         <v>1725</v>
       </c>
+      <c r="J421" t="n">
+        <v>1725</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="inlineStr">
@@ -10602,6 +11868,9 @@
       <c r="I422" t="n">
         <v>1250</v>
       </c>
+      <c r="J422" t="n">
+        <v>1250</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="inlineStr">
@@ -10626,6 +11895,9 @@
       <c r="I423" t="n">
         <v>4950</v>
       </c>
+      <c r="J423" t="n">
+        <v>4950</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="inlineStr">
@@ -10650,6 +11922,9 @@
       <c r="I424" t="n">
         <v>1650</v>
       </c>
+      <c r="J424" t="n">
+        <v>1650</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="inlineStr">
@@ -10674,6 +11949,9 @@
       <c r="I425" t="n">
         <v>1800</v>
       </c>
+      <c r="J425" t="n">
+        <v>1800</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="inlineStr">
@@ -10698,6 +11976,9 @@
       <c r="I426" t="n">
         <v>5600</v>
       </c>
+      <c r="J426" t="n">
+        <v>5600</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="inlineStr">
@@ -10722,6 +12003,9 @@
       <c r="I427" t="n">
         <v>2150</v>
       </c>
+      <c r="J427" t="n">
+        <v>2150</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="inlineStr">
@@ -10746,6 +12030,9 @@
       <c r="I428" t="n">
         <v>5500</v>
       </c>
+      <c r="J428" t="n">
+        <v>5500</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="inlineStr">
@@ -10770,6 +12057,9 @@
       <c r="I429" t="n">
         <v>825</v>
       </c>
+      <c r="J429" t="n">
+        <v>825</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="inlineStr">
@@ -10794,6 +12084,9 @@
       <c r="I430" t="n">
         <v>595</v>
       </c>
+      <c r="J430" t="n">
+        <v>595</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="inlineStr">
@@ -10818,6 +12111,9 @@
       <c r="I431" t="n">
         <v>2600</v>
       </c>
+      <c r="J431" t="n">
+        <v>2600</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="inlineStr">
@@ -10842,6 +12138,9 @@
       <c r="I432" t="n">
         <v>1450</v>
       </c>
+      <c r="J432" t="n">
+        <v>1450</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="inlineStr">
@@ -10866,6 +12165,9 @@
       <c r="I433" t="n">
         <v>2625</v>
       </c>
+      <c r="J433" t="n">
+        <v>2625</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="inlineStr">
@@ -10890,6 +12192,9 @@
       <c r="I434" t="n">
         <v>3800</v>
       </c>
+      <c r="J434" t="n">
+        <v>3800</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="inlineStr">
@@ -10914,6 +12219,9 @@
       <c r="I435" t="n">
         <v>3600</v>
       </c>
+      <c r="J435" t="n">
+        <v>3600</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="inlineStr">
@@ -10938,6 +12246,9 @@
       <c r="I436" t="n">
         <v>7600</v>
       </c>
+      <c r="J436" t="n">
+        <v>7600</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="inlineStr">
@@ -10962,6 +12273,9 @@
       <c r="I437" t="n">
         <v>5250</v>
       </c>
+      <c r="J437" t="n">
+        <v>5250</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" s="1" t="inlineStr">
@@ -10986,6 +12300,9 @@
       <c r="I438" t="n">
         <v>1980</v>
       </c>
+      <c r="J438" t="n">
+        <v>1980</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" s="1" t="inlineStr">
@@ -11010,6 +12327,9 @@
       <c r="I439" t="n">
         <v>3295</v>
       </c>
+      <c r="J439" t="n">
+        <v>3295</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" s="1" t="inlineStr">
@@ -11034,6 +12354,9 @@
       <c r="I440" t="n">
         <v>2772</v>
       </c>
+      <c r="J440" t="n">
+        <v>2772</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" s="1" t="inlineStr">
@@ -11058,6 +12381,9 @@
       <c r="I441" t="n">
         <v>1382</v>
       </c>
+      <c r="J441" t="n">
+        <v>1382</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" s="1" t="inlineStr">
@@ -11103,6 +12429,9 @@
       <c r="I443" t="n">
         <v>1254</v>
       </c>
+      <c r="J443" t="n">
+        <v>1254</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" s="1" t="inlineStr">
@@ -11142,6 +12471,9 @@
       <c r="I445" t="n">
         <v>1980</v>
       </c>
+      <c r="J445" t="n">
+        <v>1980</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" s="1" t="inlineStr">
@@ -11166,6 +12498,9 @@
       <c r="I446" t="n">
         <v>1815</v>
       </c>
+      <c r="J446" t="n">
+        <v>1815</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" s="1" t="inlineStr">
@@ -11190,6 +12525,9 @@
       <c r="I447" t="n">
         <v>1382</v>
       </c>
+      <c r="J447" t="n">
+        <v>1382</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" s="1" t="inlineStr">
@@ -11238,6 +12576,9 @@
       <c r="I449" t="n">
         <v>3750</v>
       </c>
+      <c r="J449" t="n">
+        <v>3750</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" s="1" t="inlineStr">
@@ -11286,6 +12627,9 @@
       <c r="I451" t="n">
         <v>1302</v>
       </c>
+      <c r="J451" t="n">
+        <v>1302</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" s="1" t="inlineStr">
@@ -11310,6 +12654,9 @@
       <c r="I452" t="n">
         <v>1520</v>
       </c>
+      <c r="J452" t="n">
+        <v>1520</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" s="1" t="inlineStr">
@@ -11334,6 +12681,9 @@
       <c r="I453" t="n">
         <v>1342</v>
       </c>
+      <c r="J453" t="n">
+        <v>1342</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" s="1" t="inlineStr">
@@ -11358,6 +12708,9 @@
       <c r="I454" t="n">
         <v>3467</v>
       </c>
+      <c r="J454" t="n">
+        <v>3467</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" s="1" t="inlineStr">
@@ -11382,6 +12735,9 @@
       <c r="I455" t="n">
         <v>3776</v>
       </c>
+      <c r="J455" t="n">
+        <v>3776</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" s="1" t="inlineStr">
@@ -11421,6 +12777,9 @@
       <c r="I457" t="n">
         <v>695</v>
       </c>
+      <c r="J457" t="n">
+        <v>695</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" s="1" t="inlineStr">
@@ -11466,6 +12825,9 @@
       <c r="I459" t="n">
         <v>5143</v>
       </c>
+      <c r="J459" t="n">
+        <v>5143</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" s="1" t="inlineStr">
@@ -11514,6 +12876,9 @@
       <c r="I461" t="n">
         <v>1441</v>
       </c>
+      <c r="J461" t="n">
+        <v>1441</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" s="1" t="inlineStr">
@@ -11538,6 +12903,9 @@
       <c r="I462" t="n">
         <v>1514</v>
       </c>
+      <c r="J462" t="n">
+        <v>1574</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" s="1" t="inlineStr">
@@ -11562,6 +12930,9 @@
       <c r="I463" t="n">
         <v>5147</v>
       </c>
+      <c r="J463" t="n">
+        <v>5147</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" s="1" t="inlineStr">
@@ -11586,6 +12957,9 @@
       <c r="I464" t="n">
         <v>1382</v>
       </c>
+      <c r="J464" t="n">
+        <v>1382</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" s="1" t="inlineStr">
@@ -11604,6 +12978,9 @@
       <c r="G465" t="n">
         <v>6945</v>
       </c>
+      <c r="J465" t="n">
+        <v>6945</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" s="1" t="inlineStr">
@@ -11628,6 +13005,9 @@
       <c r="I466" t="n">
         <v>876</v>
       </c>
+      <c r="J466" t="n">
+        <v>876</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" s="1" t="inlineStr">
@@ -11652,6 +13032,9 @@
       <c r="I467" t="n">
         <v>1092</v>
       </c>
+      <c r="J467" t="n">
+        <v>1092</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" s="1" t="inlineStr">
@@ -11676,6 +13059,9 @@
       <c r="I468" t="n">
         <v>1120</v>
       </c>
+      <c r="J468" t="n">
+        <v>1120</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" s="1" t="inlineStr">
@@ -11700,6 +13086,9 @@
       <c r="I469" t="n">
         <v>1020</v>
       </c>
+      <c r="J469" t="n">
+        <v>1020</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" s="1" t="inlineStr">
@@ -11724,6 +13113,9 @@
       <c r="I470" t="n">
         <v>1020</v>
       </c>
+      <c r="J470" t="n">
+        <v>1020</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" s="1" t="inlineStr">
@@ -11772,6 +13164,9 @@
       <c r="I472" t="n">
         <v>1661</v>
       </c>
+      <c r="J472" t="n">
+        <v>1661</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" s="1" t="inlineStr">
@@ -11796,6 +13191,9 @@
       <c r="I473" t="n">
         <v>1120</v>
       </c>
+      <c r="J473" t="n">
+        <v>1120</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" s="1" t="inlineStr">
@@ -11820,6 +13218,9 @@
       <c r="I474" t="n">
         <v>1120</v>
       </c>
+      <c r="J474" t="n">
+        <v>1120</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" s="1" t="inlineStr">
@@ -11844,6 +13245,9 @@
       <c r="I475" t="n">
         <v>1920</v>
       </c>
+      <c r="J475" t="n">
+        <v>1920</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" s="1" t="inlineStr">
@@ -11868,6 +13272,9 @@
       <c r="I476" t="n">
         <v>936</v>
       </c>
+      <c r="J476" t="n">
+        <v>936</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="inlineStr">
@@ -11892,6 +13299,9 @@
       <c r="I477" t="n">
         <v>2299</v>
       </c>
+      <c r="J477" t="n">
+        <v>2299</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" s="1" t="inlineStr">
@@ -11916,6 +13326,9 @@
       <c r="I478" t="n">
         <v>1254</v>
       </c>
+      <c r="J478" t="n">
+        <v>1254</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" s="1" t="inlineStr">
@@ -11940,6 +13353,9 @@
       <c r="I479" t="n">
         <v>1661</v>
       </c>
+      <c r="J479" t="n">
+        <v>1661</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" s="1" t="inlineStr">
@@ -11964,6 +13380,9 @@
       <c r="I480" t="n">
         <v>1395</v>
       </c>
+      <c r="J480" t="n">
+        <v>1395</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" s="1" t="inlineStr">
@@ -11988,6 +13407,9 @@
       <c r="I481" t="n">
         <v>1140</v>
       </c>
+      <c r="J481" t="n">
+        <v>1140</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" s="1" t="inlineStr">
@@ -12012,6 +13434,9 @@
       <c r="I482" t="n">
         <v>1140</v>
       </c>
+      <c r="J482" t="n">
+        <v>1140</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" s="1" t="inlineStr">
@@ -12036,6 +13461,9 @@
       <c r="I483" t="n">
         <v>1140</v>
       </c>
+      <c r="J483" t="n">
+        <v>1140</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" s="1" t="inlineStr">
@@ -12060,6 +13488,9 @@
       <c r="I484" t="n">
         <v>1020</v>
       </c>
+      <c r="J484" t="n">
+        <v>1020</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" s="1" t="inlineStr">
@@ -12084,6 +13515,9 @@
       <c r="I485" t="n">
         <v>936</v>
       </c>
+      <c r="J485" t="n">
+        <v>936</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" s="1" t="inlineStr">
@@ -12153,6 +13587,9 @@
       <c r="I488" t="n">
         <v>1305</v>
       </c>
+      <c r="J488" t="n">
+        <v>1305</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" s="1" t="inlineStr">
@@ -12177,6 +13614,9 @@
       <c r="I489" t="n">
         <v>2514</v>
       </c>
+      <c r="J489" t="n">
+        <v>2605</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" s="1" t="inlineStr">
@@ -12201,6 +13641,9 @@
       <c r="I490" t="n">
         <v>2438</v>
       </c>
+      <c r="J490" t="n">
+        <v>2550</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" s="1" t="inlineStr">
@@ -12225,6 +13668,9 @@
       <c r="I491" t="n">
         <v>9009</v>
       </c>
+      <c r="J491" t="n">
+        <v>9009</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" s="1" t="inlineStr">
@@ -12249,6 +13695,9 @@
       <c r="I492" t="n">
         <v>985</v>
       </c>
+      <c r="J492" t="n">
+        <v>985</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" s="1" t="inlineStr">
@@ -12273,6 +13722,9 @@
       <c r="I493" t="n">
         <v>567</v>
       </c>
+      <c r="J493" t="n">
+        <v>567</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" s="1" t="inlineStr">
@@ -12297,6 +13749,9 @@
       <c r="I494" t="n">
         <v>1172</v>
       </c>
+      <c r="J494" t="n">
+        <v>1172</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" s="1" t="inlineStr">
@@ -12321,6 +13776,9 @@
       <c r="I495" t="n">
         <v>1426</v>
       </c>
+      <c r="J495" t="n">
+        <v>1426</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" s="1" t="inlineStr">
@@ -12345,6 +13803,9 @@
       <c r="I496" t="n">
         <v>1139</v>
       </c>
+      <c r="J496" t="n">
+        <v>1139</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" s="1" t="inlineStr">
@@ -12369,6 +13830,9 @@
       <c r="I497" t="n">
         <v>2305</v>
       </c>
+      <c r="J497" t="n">
+        <v>2305</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="inlineStr">
@@ -12393,6 +13857,9 @@
       <c r="I498" t="n">
         <v>3592</v>
       </c>
+      <c r="J498" t="n">
+        <v>3592</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="inlineStr">
@@ -12417,6 +13884,9 @@
       <c r="I499" t="n">
         <v>2250</v>
       </c>
+      <c r="J499" t="n">
+        <v>2250</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="inlineStr">
@@ -12465,6 +13935,9 @@
       <c r="I501" t="n">
         <v>1584</v>
       </c>
+      <c r="J501" t="n">
+        <v>1584</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="inlineStr">
@@ -12489,6 +13962,9 @@
       <c r="I502" t="n">
         <v>1584</v>
       </c>
+      <c r="J502" t="n">
+        <v>1584</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="inlineStr">
@@ -12537,6 +14013,9 @@
       <c r="I504" t="n">
         <v>1122</v>
       </c>
+      <c r="J504" t="n">
+        <v>1122</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="inlineStr">
@@ -12561,6 +14040,9 @@
       <c r="I505" t="n">
         <v>1249</v>
       </c>
+      <c r="J505" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="inlineStr">
@@ -12585,6 +14067,9 @@
       <c r="I506" t="n">
         <v>620</v>
       </c>
+      <c r="J506" t="n">
+        <v>620</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="inlineStr">
@@ -12609,6 +14094,9 @@
       <c r="I507" t="n">
         <v>2450</v>
       </c>
+      <c r="J507" t="n">
+        <v>2450</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="inlineStr">
@@ -12633,6 +14121,9 @@
       <c r="I508" t="n">
         <v>2420</v>
       </c>
+      <c r="J508" t="n">
+        <v>2420</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="inlineStr">
@@ -12657,6 +14148,9 @@
       <c r="I509" t="n">
         <v>680</v>
       </c>
+      <c r="J509" t="n">
+        <v>680</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="inlineStr">
@@ -12681,6 +14175,9 @@
       <c r="I510" t="n">
         <v>824</v>
       </c>
+      <c r="J510" t="n">
+        <v>824</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="inlineStr">
@@ -12705,6 +14202,9 @@
       <c r="I511" t="n">
         <v>680</v>
       </c>
+      <c r="J511" t="n">
+        <v>680</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="inlineStr">
@@ -12729,6 +14229,9 @@
       <c r="I512" t="n">
         <v>680</v>
       </c>
+      <c r="J512" t="n">
+        <v>680</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="inlineStr">
@@ -12753,6 +14256,9 @@
       <c r="I513" t="n">
         <v>680</v>
       </c>
+      <c r="J513" t="n">
+        <v>680</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="inlineStr">
@@ -12777,6 +14283,9 @@
       <c r="I514" t="n">
         <v>2592</v>
       </c>
+      <c r="J514" t="n">
+        <v>2592</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="inlineStr">
@@ -12798,6 +14307,9 @@
       <c r="H515" t="n">
         <v>680</v>
       </c>
+      <c r="J515" t="n">
+        <v>680</v>
+      </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="inlineStr">
@@ -12822,6 +14334,9 @@
       <c r="I516" t="n">
         <v>871</v>
       </c>
+      <c r="J516" t="n">
+        <v>871</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="inlineStr">
@@ -12846,6 +14361,9 @@
       <c r="I517" t="n">
         <v>730</v>
       </c>
+      <c r="J517" t="n">
+        <v>730</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="inlineStr">
@@ -12870,6 +14388,9 @@
       <c r="I518" t="n">
         <v>1006</v>
       </c>
+      <c r="J518" t="n">
+        <v>1006</v>
+      </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="inlineStr">
@@ -12894,6 +14415,9 @@
       <c r="I519" t="n">
         <v>1868</v>
       </c>
+      <c r="J519" t="n">
+        <v>1868</v>
+      </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="inlineStr">
@@ -12942,6 +14466,9 @@
       <c r="I521" t="n">
         <v>1106</v>
       </c>
+      <c r="J521" t="n">
+        <v>1106</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="inlineStr">
@@ -12966,6 +14493,9 @@
       <c r="I522" t="n">
         <v>790</v>
       </c>
+      <c r="J522" t="n">
+        <v>790</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="inlineStr">
@@ -12990,6 +14520,9 @@
       <c r="I523" t="n">
         <v>815</v>
       </c>
+      <c r="J523" t="n">
+        <v>815</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="inlineStr">
@@ -13014,6 +14547,9 @@
       <c r="I524" t="n">
         <v>815</v>
       </c>
+      <c r="J524" t="n">
+        <v>815</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="inlineStr">
@@ -13038,6 +14574,9 @@
       <c r="I525" t="n">
         <v>1300</v>
       </c>
+      <c r="J525" t="n">
+        <v>1300</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="inlineStr">
@@ -13062,6 +14601,9 @@
       <c r="I526" t="n">
         <v>2420</v>
       </c>
+      <c r="J526" t="n">
+        <v>2420</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="inlineStr">
@@ -13086,6 +14628,9 @@
       <c r="I527" t="n">
         <v>1116</v>
       </c>
+      <c r="J527" t="n">
+        <v>1116</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="inlineStr">
@@ -13110,6 +14655,9 @@
       <c r="I528" t="n">
         <v>3534</v>
       </c>
+      <c r="J528" t="n">
+        <v>3534</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="inlineStr">
@@ -13134,6 +14682,9 @@
       <c r="I529" t="n">
         <v>4340</v>
       </c>
+      <c r="J529" t="n">
+        <v>4340</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="inlineStr">
@@ -13158,6 +14709,9 @@
       <c r="I530" t="n">
         <v>1116</v>
       </c>
+      <c r="J530" t="n">
+        <v>1116</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="inlineStr">
@@ -13182,6 +14736,9 @@
       <c r="I531" t="n">
         <v>1580</v>
       </c>
+      <c r="J531" t="n">
+        <v>1580</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="inlineStr">
@@ -13206,6 +14763,9 @@
       <c r="I532" t="n">
         <v>1122</v>
       </c>
+      <c r="J532" t="n">
+        <v>1122</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="inlineStr">
@@ -13230,6 +14790,9 @@
       <c r="I533" t="n">
         <v>1170</v>
       </c>
+      <c r="J533" t="n">
+        <v>1170</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="inlineStr">
@@ -13248,6 +14811,9 @@
       <c r="I534" t="n">
         <v>645</v>
       </c>
+      <c r="J534" t="n">
+        <v>645</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="inlineStr">
@@ -13272,6 +14838,9 @@
       <c r="I535" t="n">
         <v>1584</v>
       </c>
+      <c r="J535" t="n">
+        <v>1584</v>
+      </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="inlineStr">
@@ -13296,6 +14865,9 @@
       <c r="I536" t="n">
         <v>666</v>
       </c>
+      <c r="J536" t="n">
+        <v>666</v>
+      </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="inlineStr">
@@ -13335,6 +14907,9 @@
       <c r="I538" t="n">
         <v>1859</v>
       </c>
+      <c r="J538" t="n">
+        <v>1859</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="inlineStr">
@@ -13359,6 +14934,9 @@
       <c r="I539" t="n">
         <v>1595</v>
       </c>
+      <c r="J539" t="n">
+        <v>1595</v>
+      </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="inlineStr">
@@ -13383,6 +14961,9 @@
       <c r="I540" t="n">
         <v>1076</v>
       </c>
+      <c r="J540" t="n">
+        <v>1076</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="inlineStr">
@@ -13407,6 +14988,9 @@
       <c r="I541" t="n">
         <v>1089</v>
       </c>
+      <c r="J541" t="n">
+        <v>1089</v>
+      </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="inlineStr">
@@ -13431,6 +15015,9 @@
       <c r="I542" t="n">
         <v>614</v>
       </c>
+      <c r="J542" t="n">
+        <v>614</v>
+      </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="inlineStr">
@@ -13455,6 +15042,9 @@
       <c r="I543" t="n">
         <v>1076</v>
       </c>
+      <c r="J543" t="n">
+        <v>1076</v>
+      </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="inlineStr">
@@ -13479,6 +15069,9 @@
       <c r="I544" t="n">
         <v>614</v>
       </c>
+      <c r="J544" t="n">
+        <v>614</v>
+      </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="inlineStr">
@@ -13503,6 +15096,9 @@
       <c r="I545" t="n">
         <v>1140</v>
       </c>
+      <c r="J545" t="n">
+        <v>1140</v>
+      </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="inlineStr">
@@ -13527,6 +15123,9 @@
       <c r="I546" t="n">
         <v>1050</v>
       </c>
+      <c r="J546" t="n">
+        <v>1050</v>
+      </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="inlineStr">
@@ -13551,6 +15150,9 @@
       <c r="I547" t="n">
         <v>978</v>
       </c>
+      <c r="J547" t="n">
+        <v>978</v>
+      </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="inlineStr">
@@ -13575,6 +15177,9 @@
       <c r="I548" t="n">
         <v>1004</v>
       </c>
+      <c r="J548" t="n">
+        <v>1004</v>
+      </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="inlineStr">
@@ -13599,6 +15204,9 @@
       <c r="I549" t="n">
         <v>1228</v>
       </c>
+      <c r="J549" t="n">
+        <v>1228</v>
+      </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="inlineStr">
@@ -13623,6 +15231,9 @@
       <c r="I550" t="n">
         <v>766</v>
       </c>
+      <c r="J550" t="n">
+        <v>766</v>
+      </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="inlineStr">
@@ -13647,6 +15258,9 @@
       <c r="I551" t="n">
         <v>1040</v>
       </c>
+      <c r="J551" t="n">
+        <v>1040</v>
+      </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="inlineStr">
@@ -13695,6 +15309,9 @@
       <c r="I553" t="n">
         <v>1293</v>
       </c>
+      <c r="J553" t="n">
+        <v>1293</v>
+      </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="inlineStr">
@@ -13719,6 +15336,9 @@
       <c r="I554" t="n">
         <v>1056</v>
       </c>
+      <c r="J554" t="n">
+        <v>1056</v>
+      </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="inlineStr">
@@ -13764,6 +15384,9 @@
       <c r="I556" t="n">
         <v>1056</v>
       </c>
+      <c r="J556" t="n">
+        <v>1056</v>
+      </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="inlineStr">
@@ -13812,6 +15435,9 @@
       <c r="I558" t="n">
         <v>1375</v>
       </c>
+      <c r="J558" t="n">
+        <v>1375</v>
+      </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="inlineStr">
@@ -13836,6 +15462,9 @@
       <c r="I559" t="n">
         <v>644</v>
       </c>
+      <c r="J559" t="n">
+        <v>644</v>
+      </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="inlineStr">
@@ -13860,6 +15489,9 @@
       <c r="I560" t="n">
         <v>1181</v>
       </c>
+      <c r="J560" t="n">
+        <v>1181</v>
+      </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="inlineStr">
@@ -13884,6 +15516,9 @@
       <c r="I561" t="n">
         <v>966</v>
       </c>
+      <c r="J561" t="n">
+        <v>966</v>
+      </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="inlineStr">
@@ -13923,6 +15558,9 @@
       <c r="I563" t="n">
         <v>4090</v>
       </c>
+      <c r="J563" t="n">
+        <v>4090</v>
+      </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="inlineStr">
@@ -13947,6 +15585,9 @@
       <c r="I564" t="n">
         <v>1365</v>
       </c>
+      <c r="J564" t="n">
+        <v>1365</v>
+      </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="inlineStr">
@@ -13971,6 +15612,9 @@
       <c r="I565" t="n">
         <v>1332</v>
       </c>
+      <c r="J565" t="n">
+        <v>1332</v>
+      </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="inlineStr">
@@ -13995,6 +15639,9 @@
       <c r="I566" t="n">
         <v>1432</v>
       </c>
+      <c r="J566" t="n">
+        <v>1432</v>
+      </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="inlineStr">
@@ -14019,6 +15666,9 @@
       <c r="I567" t="n">
         <v>1146</v>
       </c>
+      <c r="J567" t="n">
+        <v>1146</v>
+      </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="inlineStr">
@@ -14043,6 +15693,9 @@
       <c r="I568" t="n">
         <v>1652</v>
       </c>
+      <c r="J568" t="n">
+        <v>1652</v>
+      </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="inlineStr">
@@ -14067,6 +15720,9 @@
       <c r="I569" t="n">
         <v>2563</v>
       </c>
+      <c r="J569" t="n">
+        <v>2563</v>
+      </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="inlineStr">
@@ -14091,6 +15747,9 @@
       <c r="I570" t="n">
         <v>4080</v>
       </c>
+      <c r="J570" t="n">
+        <v>4080</v>
+      </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="inlineStr">
@@ -14115,6 +15774,9 @@
       <c r="I571" t="n">
         <v>3505</v>
       </c>
+      <c r="J571" t="n">
+        <v>3505</v>
+      </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="inlineStr">
@@ -14139,6 +15801,9 @@
       <c r="I572" t="n">
         <v>3652</v>
       </c>
+      <c r="J572" t="n">
+        <v>3652</v>
+      </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="inlineStr">
@@ -14154,6 +15819,9 @@
       <c r="F573" t="n">
         <v>940</v>
       </c>
+      <c r="J573" t="n">
+        <v>940</v>
+      </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="inlineStr">
@@ -14199,6 +15867,9 @@
       <c r="I575" t="n">
         <v>873</v>
       </c>
+      <c r="J575" t="n">
+        <v>873</v>
+      </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="inlineStr">
@@ -14223,6 +15894,9 @@
       <c r="I576" t="n">
         <v>737</v>
       </c>
+      <c r="J576" t="n">
+        <v>737</v>
+      </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="inlineStr">
@@ -14247,6 +15921,9 @@
       <c r="I577" t="n">
         <v>3520</v>
       </c>
+      <c r="J577" t="n">
+        <v>3520</v>
+      </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="inlineStr">
@@ -14271,6 +15948,9 @@
       <c r="I578" t="n">
         <v>1232</v>
       </c>
+      <c r="J578" t="n">
+        <v>1232</v>
+      </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="inlineStr">
@@ -14295,6 +15975,9 @@
       <c r="I579" t="n">
         <v>1232</v>
       </c>
+      <c r="J579" t="n">
+        <v>1232</v>
+      </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="inlineStr">
@@ -14343,6 +16026,9 @@
       <c r="I581" t="n">
         <v>5500</v>
       </c>
+      <c r="J581" t="n">
+        <v>5500</v>
+      </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="inlineStr">
@@ -14367,6 +16053,9 @@
       <c r="I582" t="n">
         <v>1004</v>
       </c>
+      <c r="J582" t="n">
+        <v>1004</v>
+      </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="inlineStr">
@@ -14391,6 +16080,9 @@
       <c r="I583" t="n">
         <v>1004</v>
       </c>
+      <c r="J583" t="n">
+        <v>1004</v>
+      </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="inlineStr">
@@ -14415,6 +16107,9 @@
       <c r="I584" t="n">
         <v>3478</v>
       </c>
+      <c r="J584" t="n">
+        <v>3478</v>
+      </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="inlineStr">
@@ -14433,6 +16128,9 @@
       <c r="I585" t="n">
         <v>448</v>
       </c>
+      <c r="J585" t="n">
+        <v>448</v>
+      </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="inlineStr">
@@ -14451,6 +16149,9 @@
       <c r="I586" t="n">
         <v>448</v>
       </c>
+      <c r="J586" t="n">
+        <v>448</v>
+      </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="inlineStr">
@@ -14475,6 +16176,9 @@
       <c r="I587" t="n">
         <v>1004</v>
       </c>
+      <c r="J587" t="n">
+        <v>1004</v>
+      </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="inlineStr">
@@ -14499,6 +16203,9 @@
       <c r="I588" t="n">
         <v>1004</v>
       </c>
+      <c r="J588" t="n">
+        <v>1004</v>
+      </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="inlineStr">
@@ -14520,6 +16227,9 @@
       <c r="I589" t="n">
         <v>1172</v>
       </c>
+      <c r="J589" t="n">
+        <v>1172</v>
+      </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="inlineStr">
@@ -14544,6 +16254,9 @@
       <c r="I590" t="n">
         <v>590</v>
       </c>
+      <c r="J590" t="n">
+        <v>590</v>
+      </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="inlineStr">
@@ -14568,6 +16281,9 @@
       <c r="I591" t="n">
         <v>570</v>
       </c>
+      <c r="J591" t="n">
+        <v>570</v>
+      </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="inlineStr">
@@ -14592,6 +16308,9 @@
       <c r="I592" t="n">
         <v>590</v>
       </c>
+      <c r="J592" t="n">
+        <v>590</v>
+      </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="inlineStr">
@@ -14610,6 +16329,9 @@
       <c r="I593" t="n">
         <v>448</v>
       </c>
+      <c r="J593" t="n">
+        <v>448</v>
+      </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="inlineStr">
@@ -14634,6 +16356,9 @@
       <c r="I594" t="n">
         <v>2730</v>
       </c>
+      <c r="J594" t="n">
+        <v>2730</v>
+      </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="inlineStr">
@@ -14658,6 +16383,9 @@
       <c r="I595" t="n">
         <v>6369</v>
       </c>
+      <c r="J595" t="n">
+        <v>6369</v>
+      </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="inlineStr">
@@ -14682,6 +16410,9 @@
       <c r="I596" t="n">
         <v>829</v>
       </c>
+      <c r="J596" t="n">
+        <v>829</v>
+      </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="inlineStr">
@@ -14706,6 +16437,9 @@
       <c r="I597" t="n">
         <v>820</v>
       </c>
+      <c r="J597" t="n">
+        <v>820</v>
+      </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="inlineStr">
@@ -14730,6 +16464,9 @@
       <c r="I598" t="n">
         <v>1096</v>
       </c>
+      <c r="J598" t="n">
+        <v>1096</v>
+      </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="inlineStr">
@@ -14751,6 +16488,9 @@
       <c r="I599" t="n">
         <v>1032</v>
       </c>
+      <c r="J599" t="n">
+        <v>1032</v>
+      </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="inlineStr">
@@ -14775,6 +16515,9 @@
       <c r="I600" t="n">
         <v>820</v>
       </c>
+      <c r="J600" t="n">
+        <v>820</v>
+      </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="inlineStr">
@@ -14799,6 +16542,9 @@
       <c r="I601" t="n">
         <v>3165</v>
       </c>
+      <c r="J601" t="n">
+        <v>3165</v>
+      </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="inlineStr">
@@ -14844,6 +16590,9 @@
       <c r="I603" t="n">
         <v>560</v>
       </c>
+      <c r="J603" t="n">
+        <v>560</v>
+      </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="inlineStr">
@@ -14868,6 +16617,9 @@
       <c r="I604" t="n">
         <v>1320</v>
       </c>
+      <c r="J604" t="n">
+        <v>1320</v>
+      </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="inlineStr">
@@ -14886,6 +16638,9 @@
       <c r="I605" t="n">
         <v>645</v>
       </c>
+      <c r="J605" t="n">
+        <v>645</v>
+      </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="inlineStr">
@@ -14904,6 +16659,9 @@
       <c r="I606" t="n">
         <v>737</v>
       </c>
+      <c r="J606" t="n">
+        <v>737</v>
+      </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="inlineStr">
@@ -14922,6 +16680,9 @@
       <c r="I607" t="n">
         <v>645</v>
       </c>
+      <c r="J607" t="n">
+        <v>645</v>
+      </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="inlineStr">
@@ -14946,6 +16707,9 @@
       <c r="I608" t="n">
         <v>2210</v>
       </c>
+      <c r="J608" t="n">
+        <v>2210</v>
+      </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="inlineStr">
@@ -14964,6 +16728,9 @@
       <c r="I609" t="n">
         <v>645</v>
       </c>
+      <c r="J609" t="n">
+        <v>645</v>
+      </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="inlineStr">
@@ -14982,6 +16749,9 @@
       <c r="I610" t="n">
         <v>737</v>
       </c>
+      <c r="J610" t="n">
+        <v>737</v>
+      </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="inlineStr">
@@ -15000,6 +16770,9 @@
       <c r="I611" t="n">
         <v>737</v>
       </c>
+      <c r="J611" t="n">
+        <v>737</v>
+      </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="inlineStr">
@@ -15018,6 +16791,9 @@
       <c r="I612" t="n">
         <v>645</v>
       </c>
+      <c r="J612" t="n">
+        <v>645</v>
+      </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="inlineStr">
@@ -15066,6 +16842,9 @@
       <c r="I614" t="n">
         <v>1695</v>
       </c>
+      <c r="J614" t="n">
+        <v>1695</v>
+      </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="inlineStr">
@@ -15084,6 +16863,9 @@
       <c r="I615" t="n">
         <v>737</v>
       </c>
+      <c r="J615" t="n">
+        <v>737</v>
+      </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="inlineStr">
@@ -15129,6 +16911,9 @@
       <c r="I617" t="n">
         <v>1536</v>
       </c>
+      <c r="J617" t="n">
+        <v>1536</v>
+      </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="inlineStr">
@@ -15153,6 +16938,9 @@
       <c r="I618" t="n">
         <v>560</v>
       </c>
+      <c r="J618" t="n">
+        <v>560</v>
+      </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="inlineStr">
@@ -15177,6 +16965,9 @@
       <c r="I619" t="n">
         <v>1074</v>
       </c>
+      <c r="J619" t="n">
+        <v>1074</v>
+      </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="inlineStr">
@@ -15201,6 +16992,9 @@
       <c r="I620" t="n">
         <v>976</v>
       </c>
+      <c r="J620" t="n">
+        <v>976</v>
+      </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="inlineStr">
@@ -15246,6 +17040,9 @@
       <c r="I622" t="n">
         <v>1074</v>
       </c>
+      <c r="J622" t="n">
+        <v>1074</v>
+      </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="inlineStr">
@@ -15270,6 +17067,9 @@
       <c r="I623" t="n">
         <v>1074</v>
       </c>
+      <c r="J623" t="n">
+        <v>1074</v>
+      </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="inlineStr">
@@ -15294,6 +17094,9 @@
       <c r="I624" t="n">
         <v>1176</v>
       </c>
+      <c r="J624" t="n">
+        <v>1176</v>
+      </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="inlineStr">
@@ -15318,6 +17121,9 @@
       <c r="I625" t="n">
         <v>1074</v>
       </c>
+      <c r="J625" t="n">
+        <v>1074</v>
+      </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="inlineStr">
@@ -15342,6 +17148,9 @@
       <c r="I626" t="n">
         <v>1870</v>
       </c>
+      <c r="J626" t="n">
+        <v>1870</v>
+      </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="inlineStr">
@@ -15366,6 +17175,9 @@
       <c r="I627" t="n">
         <v>1870</v>
       </c>
+      <c r="J627" t="n">
+        <v>1870</v>
+      </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="inlineStr">
@@ -15384,6 +17196,9 @@
       <c r="I628" t="n">
         <v>1436</v>
       </c>
+      <c r="J628" t="n">
+        <v>1436</v>
+      </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="inlineStr">
@@ -15402,6 +17217,9 @@
       <c r="I629" t="n">
         <v>737</v>
       </c>
+      <c r="J629" t="n">
+        <v>737</v>
+      </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="inlineStr">
@@ -15423,6 +17241,9 @@
       <c r="I630" t="n">
         <v>974</v>
       </c>
+      <c r="J630" t="n">
+        <v>974</v>
+      </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="inlineStr">
@@ -15444,6 +17265,9 @@
       <c r="I631" t="n">
         <v>974</v>
       </c>
+      <c r="J631" t="n">
+        <v>974</v>
+      </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="inlineStr">
@@ -15468,6 +17292,9 @@
       <c r="I632" t="n">
         <v>1029</v>
       </c>
+      <c r="J632" t="n">
+        <v>1029</v>
+      </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="inlineStr">
@@ -15492,6 +17319,9 @@
       <c r="I633" t="n">
         <v>6173</v>
       </c>
+      <c r="J633" t="n">
+        <v>6173</v>
+      </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="inlineStr">
@@ -15516,6 +17346,9 @@
       <c r="I634" t="n">
         <v>1023</v>
       </c>
+      <c r="J634" t="n">
+        <v>1023</v>
+      </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="inlineStr">
@@ -15540,6 +17373,9 @@
       <c r="I635" t="n">
         <v>1421</v>
       </c>
+      <c r="J635" t="n">
+        <v>1421</v>
+      </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="inlineStr">
@@ -15582,6 +17418,9 @@
       <c r="I637" t="n">
         <v>2633</v>
       </c>
+      <c r="J637" t="n">
+        <v>2633</v>
+      </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="inlineStr">
@@ -15606,6 +17445,9 @@
       <c r="I638" t="n">
         <v>2633</v>
       </c>
+      <c r="J638" t="n">
+        <v>2633</v>
+      </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="inlineStr">
@@ -15630,6 +17472,9 @@
       <c r="I639" t="n">
         <v>1316</v>
       </c>
+      <c r="J639" t="n">
+        <v>1316</v>
+      </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="inlineStr">
@@ -15654,6 +17499,9 @@
       <c r="I640" t="n">
         <v>2633</v>
       </c>
+      <c r="J640" t="n">
+        <v>2633</v>
+      </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="inlineStr">
@@ -15678,6 +17526,9 @@
       <c r="I641" t="n">
         <v>7482</v>
       </c>
+      <c r="J641" t="n">
+        <v>7482</v>
+      </c>
     </row>
     <row r="642">
       <c r="A642" s="1" t="inlineStr">
@@ -15702,6 +17553,9 @@
       <c r="I642" t="n">
         <v>2633</v>
       </c>
+      <c r="J642" t="n">
+        <v>2633</v>
+      </c>
     </row>
     <row r="643">
       <c r="A643" s="1" t="inlineStr">
@@ -15726,6 +17580,9 @@
       <c r="I643" t="n">
         <v>558</v>
       </c>
+      <c r="J643" t="n">
+        <v>558</v>
+      </c>
     </row>
     <row r="644">
       <c r="A644" s="1" t="inlineStr">
@@ -15792,6 +17649,9 @@
       <c r="I646" t="n">
         <v>1755</v>
       </c>
+      <c r="J646" t="n">
+        <v>1755</v>
+      </c>
     </row>
     <row r="647">
       <c r="A647" s="1" t="inlineStr">
@@ -15816,6 +17676,9 @@
       <c r="I647" t="n">
         <v>1584</v>
       </c>
+      <c r="J647" t="n">
+        <v>1584</v>
+      </c>
     </row>
     <row r="648">
       <c r="A648" s="1" t="inlineStr">
@@ -15840,6 +17703,9 @@
       <c r="I648" t="n">
         <v>1230</v>
       </c>
+      <c r="J648" t="n">
+        <v>1230</v>
+      </c>
     </row>
     <row r="649">
       <c r="A649" s="1" t="inlineStr">
@@ -15864,6 +17730,9 @@
       <c r="I649" t="n">
         <v>7810</v>
       </c>
+      <c r="J649" t="n">
+        <v>7810</v>
+      </c>
     </row>
     <row r="650">
       <c r="A650" s="1" t="inlineStr">
@@ -15888,6 +17757,9 @@
       <c r="I650" t="n">
         <v>8439</v>
       </c>
+      <c r="J650" t="n">
+        <v>8439</v>
+      </c>
     </row>
     <row r="651">
       <c r="A651" s="1" t="inlineStr">
@@ -15912,6 +17784,9 @@
       <c r="I651" t="n">
         <v>3255</v>
       </c>
+      <c r="J651" t="n">
+        <v>3255</v>
+      </c>
     </row>
     <row r="652">
       <c r="A652" s="1" t="inlineStr">
@@ -15930,6 +17805,9 @@
       <c r="I652" t="n">
         <v>974</v>
       </c>
+      <c r="J652" t="n">
+        <v>974</v>
+      </c>
     </row>
     <row r="653">
       <c r="A653" s="1" t="inlineStr">
@@ -15948,6 +17826,9 @@
       <c r="I653" t="n">
         <v>974</v>
       </c>
+      <c r="J653" t="n">
+        <v>974</v>
+      </c>
     </row>
     <row r="654">
       <c r="A654" s="1" t="inlineStr">
@@ -15996,6 +17877,9 @@
       <c r="I655" t="n">
         <v>974</v>
       </c>
+      <c r="J655" t="n">
+        <v>974</v>
+      </c>
     </row>
     <row r="656">
       <c r="A656" s="1" t="inlineStr">
@@ -16020,6 +17904,9 @@
       <c r="I656" t="n">
         <v>779</v>
       </c>
+      <c r="J656" t="n">
+        <v>779</v>
+      </c>
     </row>
     <row r="657">
       <c r="A657" s="1" t="inlineStr">
@@ -16068,6 +17955,9 @@
       <c r="I658" t="n">
         <v>1463</v>
       </c>
+      <c r="J658" t="n">
+        <v>1463</v>
+      </c>
     </row>
     <row r="659">
       <c r="A659" s="1" t="inlineStr">
@@ -16092,6 +17982,9 @@
       <c r="I659" t="n">
         <v>2030</v>
       </c>
+      <c r="J659" t="n">
+        <v>2030</v>
+      </c>
     </row>
     <row r="660">
       <c r="A660" s="1" t="inlineStr">
@@ -16116,6 +18009,9 @@
       <c r="I660" t="n">
         <v>1215</v>
       </c>
+      <c r="J660" t="n">
+        <v>1215</v>
+      </c>
     </row>
     <row r="661">
       <c r="A661" s="1" t="inlineStr">
@@ -16140,6 +18036,9 @@
       <c r="I661" t="n">
         <v>1122</v>
       </c>
+      <c r="J661" t="n">
+        <v>1122</v>
+      </c>
     </row>
     <row r="662">
       <c r="A662" s="1" t="inlineStr">
@@ -16164,6 +18063,9 @@
       <c r="I662" t="n">
         <v>1122</v>
       </c>
+      <c r="J662" t="n">
+        <v>1122</v>
+      </c>
     </row>
     <row r="663">
       <c r="A663" s="1" t="inlineStr">
@@ -16185,6 +18087,9 @@
       <c r="I663" t="n">
         <v>1122</v>
       </c>
+      <c r="J663" t="n">
+        <v>1122</v>
+      </c>
     </row>
     <row r="664">
       <c r="A664" s="1" t="inlineStr">
@@ -16209,6 +18114,9 @@
       <c r="I664" t="n">
         <v>1122</v>
       </c>
+      <c r="J664" t="n">
+        <v>1122</v>
+      </c>
     </row>
     <row r="665">
       <c r="A665" s="1" t="inlineStr">
@@ -16233,6 +18141,9 @@
       <c r="I665" t="n">
         <v>1050</v>
       </c>
+      <c r="J665" t="n">
+        <v>1050</v>
+      </c>
     </row>
     <row r="666">
       <c r="A666" s="1" t="inlineStr">
@@ -16257,6 +18168,9 @@
       <c r="I666" t="n">
         <v>1122</v>
       </c>
+      <c r="J666" t="n">
+        <v>1122</v>
+      </c>
     </row>
     <row r="667">
       <c r="A667" s="1" t="inlineStr">
@@ -16281,6 +18195,9 @@
       <c r="I667" t="n">
         <v>2418</v>
       </c>
+      <c r="J667" t="n">
+        <v>2418</v>
+      </c>
     </row>
     <row r="668">
       <c r="A668" s="1" t="inlineStr">
@@ -16305,6 +18222,9 @@
       <c r="I668" t="n">
         <v>1298</v>
       </c>
+      <c r="J668" t="n">
+        <v>1298</v>
+      </c>
     </row>
     <row r="669">
       <c r="A669" s="1" t="inlineStr">
@@ -16344,6 +18264,9 @@
       <c r="I670" t="n">
         <v>1440</v>
       </c>
+      <c r="J670" t="n">
+        <v>1440</v>
+      </c>
     </row>
     <row r="671">
       <c r="A671" s="1" t="inlineStr">
@@ -16368,6 +18291,9 @@
       <c r="I671" t="n">
         <v>2899</v>
       </c>
+      <c r="J671" t="n">
+        <v>2899</v>
+      </c>
     </row>
     <row r="672">
       <c r="A672" s="1" t="inlineStr">
@@ -16392,6 +18318,9 @@
       <c r="I672" t="n">
         <v>1249</v>
       </c>
+      <c r="J672" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="673">
       <c r="A673" s="1" t="inlineStr">
@@ -16461,6 +18390,9 @@
       <c r="I675" t="n">
         <v>1330</v>
       </c>
+      <c r="J675" t="n">
+        <v>1330</v>
+      </c>
     </row>
     <row r="676">
       <c r="A676" s="1" t="inlineStr">
@@ -16485,6 +18417,9 @@
       <c r="I676" t="n">
         <v>1298</v>
       </c>
+      <c r="J676" t="n">
+        <v>1298</v>
+      </c>
     </row>
     <row r="677">
       <c r="A677" s="1" t="inlineStr">
@@ -16509,6 +18444,9 @@
       <c r="I677" t="n">
         <v>720</v>
       </c>
+      <c r="J677" t="n">
+        <v>720</v>
+      </c>
     </row>
     <row r="678">
       <c r="A678" s="1" t="inlineStr">
@@ -16533,6 +18471,9 @@
       <c r="I678" t="n">
         <v>908</v>
       </c>
+      <c r="J678" t="n">
+        <v>908</v>
+      </c>
     </row>
     <row r="679">
       <c r="A679" s="1" t="inlineStr">
@@ -16557,6 +18498,9 @@
       <c r="I679" t="n">
         <v>1395</v>
       </c>
+      <c r="J679" t="n">
+        <v>1395</v>
+      </c>
     </row>
     <row r="680">
       <c r="A680" s="1" t="inlineStr">
@@ -16581,6 +18525,9 @@
       <c r="I680" t="n">
         <v>1300</v>
       </c>
+      <c r="J680" t="n">
+        <v>1300</v>
+      </c>
     </row>
     <row r="681">
       <c r="A681" s="1" t="inlineStr">
@@ -16629,6 +18576,9 @@
       <c r="I682" t="n">
         <v>705</v>
       </c>
+      <c r="J682" t="n">
+        <v>705</v>
+      </c>
     </row>
     <row r="683">
       <c r="A683" s="1" t="inlineStr">
@@ -16653,6 +18603,9 @@
       <c r="I683" t="n">
         <v>1810</v>
       </c>
+      <c r="J683" t="n">
+        <v>1810</v>
+      </c>
     </row>
     <row r="684">
       <c r="A684" s="1" t="inlineStr">
@@ -16671,6 +18624,9 @@
       <c r="I684" t="n">
         <v>645</v>
       </c>
+      <c r="J684" t="n">
+        <v>645</v>
+      </c>
     </row>
     <row r="685">
       <c r="A685" s="1" t="inlineStr">
@@ -16695,6 +18651,9 @@
       <c r="I685" t="n">
         <v>7810</v>
       </c>
+      <c r="J685" t="n">
+        <v>7810</v>
+      </c>
     </row>
     <row r="686">
       <c r="A686" s="1" t="inlineStr">
@@ -16719,6 +18678,9 @@
       <c r="I686" t="n">
         <v>1300</v>
       </c>
+      <c r="J686" t="n">
+        <v>1300</v>
+      </c>
     </row>
     <row r="687">
       <c r="A687" s="1" t="inlineStr">
@@ -16743,6 +18705,9 @@
       <c r="I687" t="n">
         <v>3218</v>
       </c>
+      <c r="J687" t="n">
+        <v>3218</v>
+      </c>
     </row>
     <row r="688">
       <c r="A688" s="1" t="inlineStr">
@@ -16761,6 +18726,9 @@
       <c r="I688" t="n">
         <v>3218</v>
       </c>
+      <c r="J688" t="n">
+        <v>3218</v>
+      </c>
     </row>
     <row r="689">
       <c r="A689" s="1" t="inlineStr">
@@ -16785,6 +18753,9 @@
       <c r="I689" t="n">
         <v>1004</v>
       </c>
+      <c r="J689" t="n">
+        <v>1004</v>
+      </c>
     </row>
     <row r="690">
       <c r="A690" s="1" t="inlineStr">
@@ -16833,6 +18804,9 @@
       <c r="I691" t="n">
         <v>6210</v>
       </c>
+      <c r="J691" t="n">
+        <v>6210</v>
+      </c>
     </row>
     <row r="692">
       <c r="A692" s="1" t="inlineStr">
@@ -16881,6 +18855,9 @@
       <c r="I693" t="n">
         <v>1300</v>
       </c>
+      <c r="J693" t="n">
+        <v>1300</v>
+      </c>
     </row>
     <row r="694">
       <c r="A694" s="1" t="inlineStr">
@@ -16905,6 +18882,9 @@
       <c r="I694" t="n">
         <v>627</v>
       </c>
+      <c r="J694" t="n">
+        <v>627</v>
+      </c>
     </row>
     <row r="695">
       <c r="A695" s="1" t="inlineStr">
@@ -16929,6 +18909,9 @@
       <c r="I695" t="n">
         <v>627</v>
       </c>
+      <c r="J695" t="n">
+        <v>627</v>
+      </c>
     </row>
     <row r="696">
       <c r="A696" s="1" t="inlineStr">
@@ -16953,6 +18936,9 @@
       <c r="I696" t="n">
         <v>2710</v>
       </c>
+      <c r="J696" t="n">
+        <v>2710</v>
+      </c>
     </row>
     <row r="697">
       <c r="A697" s="1" t="inlineStr">
@@ -16977,6 +18963,9 @@
       <c r="I697" t="n">
         <v>5027</v>
       </c>
+      <c r="J697" t="n">
+        <v>5027</v>
+      </c>
     </row>
     <row r="698">
       <c r="A698" s="1" t="inlineStr">
@@ -17001,6 +18990,9 @@
       <c r="I698" t="n">
         <v>1105</v>
       </c>
+      <c r="J698" t="n">
+        <v>1105</v>
+      </c>
     </row>
     <row r="699">
       <c r="A699" s="1" t="inlineStr">
@@ -17025,6 +19017,9 @@
       <c r="I699" t="n">
         <v>5733</v>
       </c>
+      <c r="J699" t="n">
+        <v>5733</v>
+      </c>
     </row>
     <row r="700">
       <c r="A700" s="1" t="inlineStr">
@@ -17049,6 +19044,9 @@
       <c r="I700" t="n">
         <v>14300</v>
       </c>
+      <c r="J700" t="n">
+        <v>14300</v>
+      </c>
     </row>
     <row r="701">
       <c r="A701" s="1" t="inlineStr">
@@ -17088,6 +19086,9 @@
       <c r="I702" t="n">
         <v>1114</v>
       </c>
+      <c r="J702" t="n">
+        <v>1114</v>
+      </c>
     </row>
     <row r="703">
       <c r="A703" s="1" t="inlineStr">
@@ -17112,6 +19113,9 @@
       <c r="I703" t="n">
         <v>1114</v>
       </c>
+      <c r="J703" t="n">
+        <v>1114</v>
+      </c>
     </row>
     <row r="704">
       <c r="A704" s="1" t="inlineStr">
@@ -17136,6 +19140,9 @@
       <c r="I704" t="n">
         <v>1114</v>
       </c>
+      <c r="J704" t="n">
+        <v>1114</v>
+      </c>
     </row>
     <row r="705">
       <c r="A705" s="1" t="inlineStr">
@@ -17160,6 +19167,9 @@
       <c r="I705" t="n">
         <v>2195</v>
       </c>
+      <c r="J705" t="n">
+        <v>2195</v>
+      </c>
     </row>
     <row r="706">
       <c r="A706" s="1" t="inlineStr">
@@ -17184,6 +19194,9 @@
       <c r="I706" t="n">
         <v>2279</v>
       </c>
+      <c r="J706" t="n">
+        <v>2279</v>
+      </c>
     </row>
     <row r="707">
       <c r="A707" s="1" t="inlineStr">
@@ -17208,6 +19221,9 @@
       <c r="I707" t="n">
         <v>1300</v>
       </c>
+      <c r="J707" t="n">
+        <v>1300</v>
+      </c>
     </row>
     <row r="708">
       <c r="A708" s="1" t="inlineStr">
@@ -17232,6 +19248,9 @@
       <c r="I708" t="n">
         <v>1300</v>
       </c>
+      <c r="J708" t="n">
+        <v>1300</v>
+      </c>
     </row>
     <row r="709">
       <c r="A709" s="1" t="inlineStr">
@@ -17256,6 +19275,9 @@
       <c r="I709" t="n">
         <v>1300</v>
       </c>
+      <c r="J709" t="n">
+        <v>1300</v>
+      </c>
     </row>
     <row r="710">
       <c r="A710" s="1" t="inlineStr">
@@ -17280,6 +19302,9 @@
       <c r="I710" t="n">
         <v>1300</v>
       </c>
+      <c r="J710" t="n">
+        <v>1300</v>
+      </c>
     </row>
     <row r="711">
       <c r="A711" s="1" t="inlineStr">
@@ -17304,6 +19329,9 @@
       <c r="I711" t="n">
         <v>11770</v>
       </c>
+      <c r="J711" t="n">
+        <v>11770</v>
+      </c>
     </row>
     <row r="712">
       <c r="A712" s="1" t="inlineStr">
@@ -17328,6 +19356,9 @@
       <c r="I712" t="n">
         <v>1892</v>
       </c>
+      <c r="J712" t="n">
+        <v>1892</v>
+      </c>
     </row>
     <row r="713">
       <c r="A713" s="1" t="inlineStr">
@@ -17352,6 +19383,9 @@
       <c r="I713" t="n">
         <v>1074</v>
       </c>
+      <c r="J713" t="n">
+        <v>1074</v>
+      </c>
     </row>
     <row r="714">
       <c r="A714" s="1" t="inlineStr">
@@ -17376,6 +19410,9 @@
       <c r="I714" t="n">
         <v>1232</v>
       </c>
+      <c r="J714" t="n">
+        <v>1232</v>
+      </c>
     </row>
     <row r="715">
       <c r="A715" s="1" t="inlineStr">
@@ -17400,6 +19437,9 @@
       <c r="I715" t="n">
         <v>2074</v>
       </c>
+      <c r="J715" t="n">
+        <v>2170</v>
+      </c>
     </row>
     <row r="716">
       <c r="A716" s="1" t="inlineStr">
@@ -17424,6 +19464,9 @@
       <c r="I716" t="n">
         <v>6500</v>
       </c>
+      <c r="J716" t="n">
+        <v>6500</v>
+      </c>
     </row>
     <row r="717">
       <c r="A717" s="1" t="inlineStr">
@@ -17448,6 +19491,9 @@
       <c r="I717" t="n">
         <v>1740</v>
       </c>
+      <c r="J717" t="n">
+        <v>1740</v>
+      </c>
     </row>
     <row r="718">
       <c r="A718" s="1" t="inlineStr">
@@ -17472,6 +19518,9 @@
       <c r="I718" t="n">
         <v>2525</v>
       </c>
+      <c r="J718" t="n">
+        <v>2604</v>
+      </c>
     </row>
     <row r="719">
       <c r="A719" s="1" t="inlineStr">
@@ -17496,6 +19545,9 @@
       <c r="I719" t="n">
         <v>1265</v>
       </c>
+      <c r="J719" t="n">
+        <v>1305</v>
+      </c>
     </row>
     <row r="720">
       <c r="A720" s="1" t="inlineStr">
@@ -17520,6 +19572,9 @@
       <c r="I720" t="n">
         <v>3580</v>
       </c>
+      <c r="J720" t="n">
+        <v>3580</v>
+      </c>
     </row>
     <row r="721">
       <c r="A721" s="1" t="inlineStr">
@@ -17541,6 +19596,9 @@
       <c r="I721" t="n">
         <v>3580</v>
       </c>
+      <c r="J721" t="n">
+        <v>3580</v>
+      </c>
     </row>
     <row r="722">
       <c r="A722" s="1" t="inlineStr">
@@ -17562,6 +19620,9 @@
       <c r="I722" t="n">
         <v>3580</v>
       </c>
+      <c r="J722" t="n">
+        <v>3580</v>
+      </c>
     </row>
     <row r="723">
       <c r="A723" s="1" t="inlineStr">
@@ -17586,6 +19647,9 @@
       <c r="I723" t="n">
         <v>1265</v>
       </c>
+      <c r="J723" t="n">
+        <v>1302</v>
+      </c>
     </row>
     <row r="724">
       <c r="A724" s="1" t="inlineStr">
@@ -17604,6 +19668,9 @@
       <c r="G724" t="n">
         <v>1276</v>
       </c>
+      <c r="J724" t="n">
+        <v>1356</v>
+      </c>
     </row>
     <row r="725">
       <c r="A725" s="1" t="inlineStr">
@@ -17628,6 +19695,9 @@
       <c r="I725" t="n">
         <v>1342</v>
       </c>
+      <c r="J725" t="n">
+        <v>1342</v>
+      </c>
     </row>
     <row r="726">
       <c r="A726" s="1" t="inlineStr">
@@ -17652,6 +19722,9 @@
       <c r="I726" t="n">
         <v>1342</v>
       </c>
+      <c r="J726" t="n">
+        <v>1342</v>
+      </c>
     </row>
     <row r="727">
       <c r="A727" s="1" t="inlineStr">
@@ -17676,6 +19749,9 @@
       <c r="I727" t="n">
         <v>8864</v>
       </c>
+      <c r="J727" t="n">
+        <v>8864</v>
+      </c>
     </row>
     <row r="728">
       <c r="A728" s="1" t="inlineStr">
@@ -17700,6 +19776,9 @@
       <c r="I728" t="n">
         <v>1012</v>
       </c>
+      <c r="J728" t="n">
+        <v>1052</v>
+      </c>
     </row>
     <row r="729">
       <c r="A729" s="1" t="inlineStr">
@@ -17724,6 +19803,9 @@
       <c r="I729" t="n">
         <v>1216</v>
       </c>
+      <c r="J729" t="n">
+        <v>1216</v>
+      </c>
     </row>
     <row r="730">
       <c r="A730" s="1" t="inlineStr">
@@ -17748,6 +19830,9 @@
       <c r="I730" t="n">
         <v>739</v>
       </c>
+      <c r="J730" t="n">
+        <v>739</v>
+      </c>
     </row>
     <row r="731">
       <c r="A731" s="1" t="inlineStr">
@@ -17772,6 +19857,9 @@
       <c r="I731" t="n">
         <v>908</v>
       </c>
+      <c r="J731" t="n">
+        <v>908</v>
+      </c>
     </row>
     <row r="732">
       <c r="A732" s="1" t="inlineStr">
@@ -17796,6 +19884,9 @@
       <c r="I732" t="n">
         <v>997</v>
       </c>
+      <c r="J732" t="n">
+        <v>997</v>
+      </c>
     </row>
     <row r="733">
       <c r="A733" s="1" t="inlineStr">
@@ -17820,6 +19911,9 @@
       <c r="I733" t="n">
         <v>698</v>
       </c>
+      <c r="J733" t="n">
+        <v>698</v>
+      </c>
     </row>
     <row r="734">
       <c r="A734" s="1" t="inlineStr">
@@ -17844,6 +19938,9 @@
       <c r="I734" t="n">
         <v>1150</v>
       </c>
+      <c r="J734" t="n">
+        <v>1150</v>
+      </c>
     </row>
     <row r="735">
       <c r="A735" s="1" t="inlineStr">
@@ -17868,6 +19965,9 @@
       <c r="I735" t="n">
         <v>1032</v>
       </c>
+      <c r="J735" t="n">
+        <v>1032</v>
+      </c>
     </row>
     <row r="736">
       <c r="A736" s="1" t="inlineStr">
@@ -17892,6 +19992,9 @@
       <c r="I736" t="n">
         <v>1032</v>
       </c>
+      <c r="J736" t="n">
+        <v>1032</v>
+      </c>
     </row>
     <row r="737">
       <c r="A737" s="1" t="inlineStr">
@@ -17916,6 +20019,9 @@
       <c r="I737" t="n">
         <v>990</v>
       </c>
+      <c r="J737" t="n">
+        <v>990</v>
+      </c>
     </row>
     <row r="738">
       <c r="A738" s="1" t="inlineStr">
@@ -17940,6 +20046,9 @@
       <c r="I738" t="n">
         <v>1356</v>
       </c>
+      <c r="J738" t="n">
+        <v>1356</v>
+      </c>
     </row>
     <row r="739">
       <c r="A739" s="1" t="inlineStr">
@@ -17964,6 +20073,9 @@
       <c r="I739" t="n">
         <v>979</v>
       </c>
+      <c r="J739" t="n">
+        <v>979</v>
+      </c>
     </row>
     <row r="740">
       <c r="A740" s="1" t="inlineStr">
@@ -17988,6 +20100,9 @@
       <c r="I740" t="n">
         <v>1012</v>
       </c>
+      <c r="J740" t="n">
+        <v>1052</v>
+      </c>
     </row>
     <row r="741">
       <c r="A741" s="1" t="inlineStr">
@@ -18036,6 +20151,9 @@
       <c r="I742" t="n">
         <v>1290</v>
       </c>
+      <c r="J742" t="n">
+        <v>1290</v>
+      </c>
     </row>
     <row r="743">
       <c r="A743" s="1" t="inlineStr">
@@ -18060,6 +20178,9 @@
       <c r="I743" t="n">
         <v>1848</v>
       </c>
+      <c r="J743" t="n">
+        <v>1898</v>
+      </c>
     </row>
     <row r="744">
       <c r="A744" s="1" t="inlineStr">
@@ -18084,6 +20205,9 @@
       <c r="I744" t="n">
         <v>1094</v>
       </c>
+      <c r="J744" t="n">
+        <v>1094</v>
+      </c>
     </row>
     <row r="745">
       <c r="A745" s="1" t="inlineStr">
@@ -18108,6 +20232,9 @@
       <c r="I745" t="n">
         <v>5852</v>
       </c>
+      <c r="J745" t="n">
+        <v>5852</v>
+      </c>
     </row>
     <row r="746">
       <c r="A746" s="1" t="inlineStr">
@@ -18168,6 +20295,9 @@
       <c r="I748" t="n">
         <v>1007</v>
       </c>
+      <c r="J748" t="n">
+        <v>1007</v>
+      </c>
     </row>
     <row r="749">
       <c r="A749" s="1" t="inlineStr">
@@ -18192,6 +20322,9 @@
       <c r="I749" t="n">
         <v>1023</v>
       </c>
+      <c r="J749" t="n">
+        <v>1023</v>
+      </c>
     </row>
     <row r="750">
       <c r="A750" s="1" t="inlineStr">
@@ -18216,6 +20349,9 @@
       <c r="I750" t="n">
         <v>1725</v>
       </c>
+      <c r="J750" t="n">
+        <v>1725</v>
+      </c>
     </row>
     <row r="751">
       <c r="A751" s="1" t="inlineStr">
@@ -18240,6 +20376,9 @@
       <c r="I751" t="n">
         <v>1146</v>
       </c>
+      <c r="J751" t="n">
+        <v>1146</v>
+      </c>
     </row>
     <row r="752">
       <c r="A752" s="1" t="inlineStr">
@@ -18264,6 +20403,9 @@
       <c r="I752" t="n">
         <v>1045</v>
       </c>
+      <c r="J752" t="n">
+        <v>1045</v>
+      </c>
     </row>
     <row r="753">
       <c r="A753" s="1" t="inlineStr">
@@ -18288,6 +20430,9 @@
       <c r="I753" t="n">
         <v>732</v>
       </c>
+      <c r="J753" t="n">
+        <v>732</v>
+      </c>
     </row>
     <row r="754">
       <c r="A754" s="1" t="inlineStr">
@@ -18312,6 +20457,9 @@
       <c r="I754" t="n">
         <v>732</v>
       </c>
+      <c r="J754" t="n">
+        <v>732</v>
+      </c>
     </row>
     <row r="755">
       <c r="A755" s="1" t="inlineStr">
@@ -18336,6 +20484,9 @@
       <c r="I755" t="n">
         <v>732</v>
       </c>
+      <c r="J755" t="n">
+        <v>732</v>
+      </c>
     </row>
     <row r="756">
       <c r="A756" s="1" t="inlineStr">
@@ -18381,6 +20532,9 @@
       <c r="I757" t="n">
         <v>655</v>
       </c>
+      <c r="J757" t="n">
+        <v>655</v>
+      </c>
     </row>
     <row r="758">
       <c r="A758" s="1" t="inlineStr">
@@ -18405,6 +20559,9 @@
       <c r="I758" t="n">
         <v>1725</v>
       </c>
+      <c r="J758" t="n">
+        <v>1725</v>
+      </c>
     </row>
     <row r="759">
       <c r="A759" s="1" t="inlineStr">
@@ -18429,6 +20586,9 @@
       <c r="I759" t="n">
         <v>7016</v>
       </c>
+      <c r="J759" t="n">
+        <v>7016</v>
+      </c>
     </row>
     <row r="760">
       <c r="A760" s="1" t="inlineStr">
@@ -18453,6 +20613,9 @@
       <c r="I760" t="n">
         <v>732</v>
       </c>
+      <c r="J760" t="n">
+        <v>732</v>
+      </c>
     </row>
     <row r="761">
       <c r="A761" s="1" t="inlineStr">
@@ -18477,6 +20640,9 @@
       <c r="I761" t="n">
         <v>1365</v>
       </c>
+      <c r="J761" t="n">
+        <v>1365</v>
+      </c>
     </row>
     <row r="762">
       <c r="A762" s="1" t="inlineStr">
@@ -18501,6 +20667,9 @@
       <c r="I762" t="n">
         <v>5705</v>
       </c>
+      <c r="J762" t="n">
+        <v>5705</v>
+      </c>
     </row>
     <row r="763">
       <c r="A763" s="1" t="inlineStr">
@@ -18525,6 +20694,9 @@
       <c r="I763" t="n">
         <v>2604</v>
       </c>
+      <c r="J763" t="n">
+        <v>2604</v>
+      </c>
     </row>
     <row r="764">
       <c r="A764" s="1" t="inlineStr">
@@ -18570,6 +20742,9 @@
       <c r="I765" t="n">
         <v>1545</v>
       </c>
+      <c r="J765" t="n">
+        <v>1605</v>
+      </c>
     </row>
     <row r="766">
       <c r="A766" s="1" t="inlineStr">
@@ -18594,6 +20769,9 @@
       <c r="I766" t="n">
         <v>908</v>
       </c>
+      <c r="J766" t="n">
+        <v>908</v>
+      </c>
     </row>
     <row r="767">
       <c r="A767" s="1" t="inlineStr">
@@ -18618,6 +20796,9 @@
       <c r="I767" t="n">
         <v>957</v>
       </c>
+      <c r="J767" t="n">
+        <v>957</v>
+      </c>
     </row>
     <row r="768">
       <c r="A768" s="1" t="inlineStr">
@@ -18642,6 +20823,9 @@
       <c r="I768" t="n">
         <v>1414</v>
       </c>
+      <c r="J768" t="n">
+        <v>1414</v>
+      </c>
     </row>
     <row r="769">
       <c r="A769" s="1" t="inlineStr">
@@ -18666,6 +20850,9 @@
       <c r="I769" t="n">
         <v>1265</v>
       </c>
+      <c r="J769" t="n">
+        <v>1305</v>
+      </c>
     </row>
     <row r="770">
       <c r="A770" s="1" t="inlineStr">
@@ -18690,6 +20877,9 @@
       <c r="I770" t="n">
         <v>660</v>
       </c>
+      <c r="J770" t="n">
+        <v>660</v>
+      </c>
     </row>
     <row r="771">
       <c r="A771" s="1" t="inlineStr">
@@ -18714,6 +20904,9 @@
       <c r="I771" t="n">
         <v>609</v>
       </c>
+      <c r="J771" t="n">
+        <v>609</v>
+      </c>
     </row>
     <row r="772">
       <c r="A772" s="1" t="inlineStr">
@@ -18738,6 +20931,9 @@
       <c r="I772" t="n">
         <v>666</v>
       </c>
+      <c r="J772" t="n">
+        <v>666</v>
+      </c>
     </row>
     <row r="773">
       <c r="A773" s="1" t="inlineStr">
@@ -18762,6 +20958,9 @@
       <c r="I773" t="n">
         <v>737</v>
       </c>
+      <c r="J773" t="n">
+        <v>737</v>
+      </c>
     </row>
     <row r="774">
       <c r="A774" s="1" t="inlineStr">
@@ -18786,6 +20985,9 @@
       <c r="I774" t="n">
         <v>721</v>
       </c>
+      <c r="J774" t="n">
+        <v>721</v>
+      </c>
     </row>
     <row r="775">
       <c r="A775" s="1" t="inlineStr">
@@ -18810,6 +21012,9 @@
       <c r="I775" t="n">
         <v>754</v>
       </c>
+      <c r="J775" t="n">
+        <v>754</v>
+      </c>
     </row>
     <row r="776">
       <c r="A776" s="1" t="inlineStr">
@@ -18834,6 +21039,9 @@
       <c r="I776" t="n">
         <v>754</v>
       </c>
+      <c r="J776" t="n">
+        <v>754</v>
+      </c>
     </row>
     <row r="777">
       <c r="A777" s="1" t="inlineStr">
@@ -18858,6 +21066,9 @@
       <c r="I777" t="n">
         <v>3410</v>
       </c>
+      <c r="J777" t="n">
+        <v>3410</v>
+      </c>
     </row>
     <row r="778">
       <c r="A778" s="1" t="inlineStr">
@@ -18882,6 +21093,9 @@
       <c r="I778" t="n">
         <v>688</v>
       </c>
+      <c r="J778" t="n">
+        <v>688</v>
+      </c>
     </row>
     <row r="779">
       <c r="A779" s="1" t="inlineStr">
@@ -18906,6 +21120,9 @@
       <c r="I779" t="n">
         <v>1359</v>
       </c>
+      <c r="J779" t="n">
+        <v>1359</v>
+      </c>
     </row>
     <row r="780">
       <c r="A780" s="1" t="inlineStr">
@@ -18930,6 +21147,9 @@
       <c r="I780" t="n">
         <v>17820</v>
       </c>
+      <c r="J780" t="n">
+        <v>17820</v>
+      </c>
     </row>
     <row r="781">
       <c r="A781" s="1" t="inlineStr">
@@ -18954,6 +21174,9 @@
       <c r="I781" t="n">
         <v>1287</v>
       </c>
+      <c r="J781" t="n">
+        <v>1287</v>
+      </c>
     </row>
     <row r="782">
       <c r="A782" s="1" t="inlineStr">
@@ -18978,6 +21201,9 @@
       <c r="I782" t="n">
         <v>768</v>
       </c>
+      <c r="J782" t="n">
+        <v>768</v>
+      </c>
     </row>
     <row r="783">
       <c r="A783" s="1" t="inlineStr">
@@ -19002,6 +21228,9 @@
       <c r="I783" t="n">
         <v>768</v>
       </c>
+      <c r="J783" t="n">
+        <v>768</v>
+      </c>
     </row>
     <row r="784">
       <c r="A784" s="1" t="inlineStr">
@@ -19026,6 +21255,9 @@
       <c r="I784" t="n">
         <v>768</v>
       </c>
+      <c r="J784" t="n">
+        <v>768</v>
+      </c>
     </row>
     <row r="785">
       <c r="A785" s="1" t="inlineStr">
@@ -19050,6 +21282,9 @@
       <c r="I785" t="n">
         <v>768</v>
       </c>
+      <c r="J785" t="n">
+        <v>768</v>
+      </c>
     </row>
     <row r="786">
       <c r="A786" s="1" t="inlineStr">
@@ -19074,6 +21309,9 @@
       <c r="I786" t="n">
         <v>721</v>
       </c>
+      <c r="J786" t="n">
+        <v>721</v>
+      </c>
     </row>
     <row r="787">
       <c r="A787" s="1" t="inlineStr">
@@ -19098,6 +21336,9 @@
       <c r="I787" t="n">
         <v>4530</v>
       </c>
+      <c r="J787" t="n">
+        <v>4530</v>
+      </c>
     </row>
     <row r="788">
       <c r="A788" s="1" t="inlineStr">
@@ -19122,6 +21363,9 @@
       <c r="I788" t="n">
         <v>1228</v>
       </c>
+      <c r="J788" t="n">
+        <v>1228</v>
+      </c>
     </row>
     <row r="789">
       <c r="A789" s="1" t="inlineStr">
@@ -19146,6 +21390,9 @@
       <c r="I789" t="n">
         <v>1822</v>
       </c>
+      <c r="J789" t="n">
+        <v>1822</v>
+      </c>
     </row>
     <row r="790">
       <c r="A790" s="1" t="inlineStr">
@@ -19170,6 +21417,9 @@
       <c r="I790" t="n">
         <v>1667</v>
       </c>
+      <c r="J790" t="n">
+        <v>1667</v>
+      </c>
     </row>
     <row r="791">
       <c r="A791" s="1" t="inlineStr">
@@ -19194,6 +21444,9 @@
       <c r="I791" t="n">
         <v>1183</v>
       </c>
+      <c r="J791" t="n">
+        <v>1183</v>
+      </c>
     </row>
     <row r="792">
       <c r="A792" s="1" t="inlineStr">
@@ -19218,6 +21471,9 @@
       <c r="I792" t="n">
         <v>1689</v>
       </c>
+      <c r="J792" t="n">
+        <v>1736</v>
+      </c>
     </row>
     <row r="793">
       <c r="A793" s="1" t="inlineStr">
@@ -19260,6 +21516,9 @@
       <c r="I794" t="n">
         <v>1590</v>
       </c>
+      <c r="J794" t="n">
+        <v>1590</v>
+      </c>
     </row>
     <row r="795">
       <c r="A795" s="1" t="inlineStr">
@@ -19284,6 +21543,9 @@
       <c r="I795" t="n">
         <v>1111</v>
       </c>
+      <c r="J795" t="n">
+        <v>1111</v>
+      </c>
     </row>
     <row r="796">
       <c r="A796" s="1" t="inlineStr">
@@ -19308,6 +21570,9 @@
       <c r="I796" t="n">
         <v>1551</v>
       </c>
+      <c r="J796" t="n">
+        <v>1551</v>
+      </c>
     </row>
     <row r="797">
       <c r="A797" s="1" t="inlineStr">
@@ -19332,6 +21597,9 @@
       <c r="I797" t="n">
         <v>1311</v>
       </c>
+      <c r="J797" t="n">
+        <v>1311</v>
+      </c>
     </row>
     <row r="798">
       <c r="A798" s="1" t="inlineStr">
@@ -19377,6 +21645,9 @@
       <c r="I799" t="n">
         <v>3135</v>
       </c>
+      <c r="J799" t="n">
+        <v>3135</v>
+      </c>
     </row>
     <row r="800">
       <c r="A800" s="1" t="inlineStr">
@@ -19401,6 +21672,9 @@
       <c r="I800" t="n">
         <v>1810</v>
       </c>
+      <c r="J800" t="n">
+        <v>1810</v>
+      </c>
     </row>
     <row r="801">
       <c r="A801" s="1" t="inlineStr">
@@ -19425,6 +21699,9 @@
       <c r="I801" t="n">
         <v>957</v>
       </c>
+      <c r="J801" t="n">
+        <v>957</v>
+      </c>
     </row>
     <row r="802">
       <c r="A802" s="1" t="inlineStr">
@@ -19473,6 +21750,9 @@
       <c r="I803" t="n">
         <v>1546</v>
       </c>
+      <c r="J803" t="n">
+        <v>1546</v>
+      </c>
     </row>
     <row r="804">
       <c r="A804" s="1" t="inlineStr">
@@ -19497,6 +21777,9 @@
       <c r="I804" t="n">
         <v>1502</v>
       </c>
+      <c r="J804" t="n">
+        <v>1502</v>
+      </c>
     </row>
     <row r="805">
       <c r="A805" s="1" t="inlineStr">
@@ -19521,6 +21804,9 @@
       <c r="I805" t="n">
         <v>638</v>
       </c>
+      <c r="J805" t="n">
+        <v>638</v>
+      </c>
     </row>
     <row r="806">
       <c r="A806" s="1" t="inlineStr">
@@ -19545,6 +21831,9 @@
       <c r="I806" t="n">
         <v>880</v>
       </c>
+      <c r="J806" t="n">
+        <v>880</v>
+      </c>
     </row>
     <row r="807">
       <c r="A807" s="1" t="inlineStr">
@@ -19569,6 +21858,9 @@
       <c r="I807" t="n">
         <v>1110</v>
       </c>
+      <c r="J807" t="n">
+        <v>1110</v>
+      </c>
     </row>
     <row r="808">
       <c r="A808" s="1" t="inlineStr">
@@ -19593,6 +21885,9 @@
       <c r="I808" t="n">
         <v>2310</v>
       </c>
+      <c r="J808" t="n">
+        <v>2310</v>
+      </c>
     </row>
     <row r="809">
       <c r="A809" s="1" t="inlineStr">
@@ -19617,6 +21912,9 @@
       <c r="I809" t="n">
         <v>897</v>
       </c>
+      <c r="J809" t="n">
+        <v>897</v>
+      </c>
     </row>
     <row r="810">
       <c r="A810" s="1" t="inlineStr">
@@ -19641,6 +21939,9 @@
       <c r="I810" t="n">
         <v>1243</v>
       </c>
+      <c r="J810" t="n">
+        <v>1243</v>
+      </c>
     </row>
     <row r="811">
       <c r="A811" s="1" t="inlineStr">
@@ -19665,6 +21966,9 @@
       <c r="I811" t="n">
         <v>1249</v>
       </c>
+      <c r="J811" t="n">
+        <v>1249</v>
+      </c>
     </row>
     <row r="812">
       <c r="A812" s="1" t="inlineStr">
@@ -19689,6 +21993,9 @@
       <c r="I812" t="n">
         <v>648</v>
       </c>
+      <c r="J812" t="n">
+        <v>648</v>
+      </c>
     </row>
     <row r="813">
       <c r="A813" s="1" t="inlineStr">
@@ -19713,6 +22020,9 @@
       <c r="I813" t="n">
         <v>913</v>
       </c>
+      <c r="J813" t="n">
+        <v>913</v>
+      </c>
     </row>
     <row r="814">
       <c r="A814" s="1" t="inlineStr">
@@ -19737,6 +22047,9 @@
       <c r="I814" t="n">
         <v>952</v>
       </c>
+      <c r="J814" t="n">
+        <v>952</v>
+      </c>
     </row>
     <row r="815">
       <c r="A815" s="1" t="inlineStr">
@@ -19761,6 +22074,9 @@
       <c r="I815" t="n">
         <v>891</v>
       </c>
+      <c r="J815" t="n">
+        <v>891</v>
+      </c>
     </row>
     <row r="816">
       <c r="A816" s="1" t="inlineStr">
@@ -19785,6 +22101,9 @@
       <c r="I816" t="n">
         <v>892</v>
       </c>
+      <c r="J816" t="n">
+        <v>892</v>
+      </c>
     </row>
     <row r="817">
       <c r="A817" s="1" t="inlineStr">
@@ -19809,6 +22128,9 @@
       <c r="I817" t="n">
         <v>1133</v>
       </c>
+      <c r="J817" t="n">
+        <v>1133</v>
+      </c>
     </row>
     <row r="818">
       <c r="A818" s="1" t="inlineStr">
@@ -19833,6 +22155,9 @@
       <c r="I818" t="n">
         <v>892</v>
       </c>
+      <c r="J818" t="n">
+        <v>892</v>
+      </c>
     </row>
     <row r="819">
       <c r="A819" s="1" t="inlineStr">
@@ -19857,6 +22182,9 @@
       <c r="I819" t="n">
         <v>612</v>
       </c>
+      <c r="J819" t="n">
+        <v>612</v>
+      </c>
     </row>
     <row r="820">
       <c r="A820" s="1" t="inlineStr">
@@ -19881,6 +22209,9 @@
       <c r="I820" t="n">
         <v>697</v>
       </c>
+      <c r="J820" t="n">
+        <v>697</v>
+      </c>
     </row>
     <row r="821">
       <c r="A821" s="1" t="inlineStr">
@@ -19905,6 +22236,9 @@
       <c r="I821" t="n">
         <v>1374</v>
       </c>
+      <c r="J821" t="n">
+        <v>1374</v>
+      </c>
     </row>
     <row r="822">
       <c r="A822" s="1" t="inlineStr">
@@ -19929,6 +22263,9 @@
       <c r="I822" t="n">
         <v>1513</v>
       </c>
+      <c r="J822" t="n">
+        <v>1513</v>
+      </c>
     </row>
     <row r="823">
       <c r="A823" s="1" t="inlineStr">
@@ -19953,6 +22290,9 @@
       <c r="I823" t="n">
         <v>2112</v>
       </c>
+      <c r="J823" t="n">
+        <v>2112</v>
+      </c>
     </row>
     <row r="824">
       <c r="A824" s="1" t="inlineStr">
@@ -19995,6 +22335,9 @@
       <c r="I825" t="n">
         <v>1868</v>
       </c>
+      <c r="J825" t="n">
+        <v>1868</v>
+      </c>
     </row>
     <row r="826">
       <c r="A826" s="1" t="inlineStr">
@@ -20019,6 +22362,9 @@
       <c r="I826" t="n">
         <v>927</v>
       </c>
+      <c r="J826" t="n">
+        <v>927</v>
+      </c>
     </row>
     <row r="827">
       <c r="A827" s="1" t="inlineStr">
@@ -20043,6 +22389,9 @@
       <c r="I827" t="n">
         <v>1465</v>
       </c>
+      <c r="J827" t="n">
+        <v>1465</v>
+      </c>
     </row>
     <row r="828">
       <c r="A828" s="1" t="inlineStr">
@@ -20067,6 +22416,9 @@
       <c r="I828" t="n">
         <v>927</v>
       </c>
+      <c r="J828" t="n">
+        <v>927</v>
+      </c>
     </row>
     <row r="829">
       <c r="A829" s="1" t="inlineStr">
@@ -20091,6 +22443,9 @@
       <c r="I829" t="n">
         <v>968</v>
       </c>
+      <c r="J829" t="n">
+        <v>968</v>
+      </c>
     </row>
     <row r="830">
       <c r="A830" s="1" t="inlineStr">
@@ -20115,6 +22470,9 @@
       <c r="I830" t="n">
         <v>1146</v>
       </c>
+      <c r="J830" t="n">
+        <v>1146</v>
+      </c>
     </row>
     <row r="831">
       <c r="A831" s="1" t="inlineStr">
@@ -20139,6 +22497,9 @@
       <c r="I831" t="n">
         <v>1196</v>
       </c>
+      <c r="J831" t="n">
+        <v>1196</v>
+      </c>
     </row>
     <row r="832">
       <c r="A832" s="1" t="inlineStr">
@@ -20163,6 +22524,9 @@
       <c r="I832" t="n">
         <v>1260</v>
       </c>
+      <c r="J832" t="n">
+        <v>1260</v>
+      </c>
     </row>
     <row r="833">
       <c r="A833" s="1" t="inlineStr">
@@ -20178,6 +22542,9 @@
       <c r="I833" t="n">
         <v>2058</v>
       </c>
+      <c r="J833" t="n">
+        <v>2058</v>
+      </c>
     </row>
     <row r="834">
       <c r="A834" s="1" t="inlineStr">
@@ -20202,6 +22569,9 @@
       <c r="I834" t="n">
         <v>561</v>
       </c>
+      <c r="J834" t="n">
+        <v>561</v>
+      </c>
     </row>
     <row r="835">
       <c r="A835" s="1" t="inlineStr">
@@ -20226,6 +22596,9 @@
       <c r="I835" t="n">
         <v>1085</v>
       </c>
+      <c r="J835" t="n">
+        <v>1085</v>
+      </c>
     </row>
     <row r="836">
       <c r="A836" s="1" t="inlineStr">
@@ -20247,6 +22620,9 @@
       <c r="I836" t="n">
         <v>1705</v>
       </c>
+      <c r="J836" t="n">
+        <v>1705</v>
+      </c>
     </row>
     <row r="837">
       <c r="A837" s="1" t="inlineStr">
@@ -20271,6 +22647,9 @@
       <c r="I837" t="n">
         <v>1195</v>
       </c>
+      <c r="J837" t="n">
+        <v>1195</v>
+      </c>
     </row>
     <row r="838">
       <c r="A838" s="1" t="inlineStr">
@@ -20295,6 +22674,9 @@
       <c r="I838" t="n">
         <v>1705</v>
       </c>
+      <c r="J838" t="n">
+        <v>1705</v>
+      </c>
     </row>
     <row r="839">
       <c r="A839" s="1" t="inlineStr">
@@ -20316,6 +22698,9 @@
       <c r="I839" t="n">
         <v>955</v>
       </c>
+      <c r="J839" t="n">
+        <v>955</v>
+      </c>
     </row>
     <row r="840">
       <c r="A840" s="1" t="inlineStr">
@@ -20340,6 +22725,9 @@
       <c r="I840" t="n">
         <v>1892</v>
       </c>
+      <c r="J840" t="n">
+        <v>1892</v>
+      </c>
     </row>
     <row r="841">
       <c r="A841" s="1" t="inlineStr">
@@ -20388,6 +22776,9 @@
       <c r="I842" t="n">
         <v>1172</v>
       </c>
+      <c r="J842" t="n">
+        <v>1172</v>
+      </c>
     </row>
     <row r="843">
       <c r="A843" s="1" t="inlineStr">
@@ -20412,6 +22803,9 @@
       <c r="I843" t="n">
         <v>832</v>
       </c>
+      <c r="J843" t="n">
+        <v>832</v>
+      </c>
     </row>
     <row r="844">
       <c r="A844" s="1" t="inlineStr">
@@ -20436,6 +22830,9 @@
       <c r="I844" t="n">
         <v>1128</v>
       </c>
+      <c r="J844" t="n">
+        <v>1128</v>
+      </c>
     </row>
     <row r="845">
       <c r="A845" s="1" t="inlineStr">
@@ -20460,6 +22857,9 @@
       <c r="I845" t="n">
         <v>948</v>
       </c>
+      <c r="J845" t="n">
+        <v>948</v>
+      </c>
     </row>
     <row r="846">
       <c r="A846" s="1" t="inlineStr">
@@ -20508,6 +22908,9 @@
       <c r="I847" t="n">
         <v>1062</v>
       </c>
+      <c r="J847" t="n">
+        <v>1062</v>
+      </c>
     </row>
     <row r="848">
       <c r="A848" s="1" t="inlineStr">
@@ -20532,6 +22935,9 @@
       <c r="I848" t="n">
         <v>1860</v>
       </c>
+      <c r="J848" t="n">
+        <v>1860</v>
+      </c>
     </row>
     <row r="849">
       <c r="A849" s="1" t="inlineStr">
@@ -20556,6 +22962,9 @@
       <c r="I849" t="n">
         <v>1132</v>
       </c>
+      <c r="J849" t="n">
+        <v>1132</v>
+      </c>
     </row>
     <row r="850">
       <c r="A850" s="1" t="inlineStr">
@@ -20580,6 +22989,9 @@
       <c r="I850" t="n">
         <v>644</v>
       </c>
+      <c r="J850" t="n">
+        <v>644</v>
+      </c>
     </row>
     <row r="851">
       <c r="A851" s="1" t="inlineStr">
@@ -20604,6 +23016,9 @@
       <c r="I851" t="n">
         <v>3304</v>
       </c>
+      <c r="J851" t="n">
+        <v>3304</v>
+      </c>
     </row>
     <row r="852">
       <c r="A852" s="1" t="inlineStr">
@@ -20628,6 +23043,9 @@
       <c r="I852" t="n">
         <v>1815</v>
       </c>
+      <c r="J852" t="n">
+        <v>1815</v>
+      </c>
     </row>
     <row r="853">
       <c r="A853" s="1" t="inlineStr">
@@ -20652,6 +23070,9 @@
       <c r="I853" t="n">
         <v>886</v>
       </c>
+      <c r="J853" t="n">
+        <v>886</v>
+      </c>
     </row>
     <row r="854">
       <c r="A854" s="1" t="inlineStr">
@@ -20700,6 +23121,9 @@
       <c r="I855" t="n">
         <v>2112</v>
       </c>
+      <c r="J855" t="n">
+        <v>2112</v>
+      </c>
     </row>
     <row r="856">
       <c r="A856" s="1" t="inlineStr">
@@ -20724,6 +23148,9 @@
       <c r="I856" t="n">
         <v>886</v>
       </c>
+      <c r="J856" t="n">
+        <v>886</v>
+      </c>
     </row>
     <row r="857">
       <c r="A857" s="1" t="inlineStr">
@@ -20748,6 +23175,9 @@
       <c r="I857" t="n">
         <v>5250</v>
       </c>
+      <c r="J857" t="n">
+        <v>5250</v>
+      </c>
     </row>
     <row r="858">
       <c r="A858" s="1" t="inlineStr">
@@ -20772,6 +23202,9 @@
       <c r="I858" t="n">
         <v>644</v>
       </c>
+      <c r="J858" t="n">
+        <v>644</v>
+      </c>
     </row>
     <row r="859">
       <c r="A859" s="1" t="inlineStr">
@@ -20796,6 +23229,9 @@
       <c r="I859" t="n">
         <v>1074</v>
       </c>
+      <c r="J859" t="n">
+        <v>1074</v>
+      </c>
     </row>
     <row r="860">
       <c r="A860" s="1" t="inlineStr">
@@ -20820,6 +23256,9 @@
       <c r="I860" t="n">
         <v>1074</v>
       </c>
+      <c r="J860" t="n">
+        <v>1074</v>
+      </c>
     </row>
     <row r="861">
       <c r="A861" s="1" t="inlineStr">
@@ -20844,6 +23283,9 @@
       <c r="I861" t="n">
         <v>1740</v>
       </c>
+      <c r="J861" t="n">
+        <v>1740</v>
+      </c>
     </row>
     <row r="862">
       <c r="A862" s="1" t="inlineStr">
@@ -20868,6 +23310,9 @@
       <c r="I862" t="n">
         <v>1078</v>
       </c>
+      <c r="J862" t="n">
+        <v>1078</v>
+      </c>
     </row>
     <row r="863">
       <c r="A863" s="1" t="inlineStr">
@@ -20892,6 +23337,9 @@
       <c r="I863" t="n">
         <v>1012</v>
       </c>
+      <c r="J863" t="n">
+        <v>1012</v>
+      </c>
     </row>
     <row r="864">
       <c r="A864" s="1" t="inlineStr">
@@ -20916,6 +23364,9 @@
       <c r="I864" t="n">
         <v>1694</v>
       </c>
+      <c r="J864" t="n">
+        <v>1694</v>
+      </c>
     </row>
     <row r="865">
       <c r="A865" s="1" t="inlineStr">
@@ -20940,6 +23391,9 @@
       <c r="I865" t="n">
         <v>1628</v>
       </c>
+      <c r="J865" t="n">
+        <v>1628</v>
+      </c>
     </row>
     <row r="866">
       <c r="A866" s="1" t="inlineStr">
@@ -20964,6 +23418,9 @@
       <c r="I866" t="n">
         <v>1788</v>
       </c>
+      <c r="J866" t="n">
+        <v>1788</v>
+      </c>
     </row>
     <row r="867">
       <c r="A867" s="1" t="inlineStr">
@@ -20988,6 +23445,9 @@
       <c r="I867" t="n">
         <v>1120</v>
       </c>
+      <c r="J867" t="n">
+        <v>1120</v>
+      </c>
     </row>
     <row r="868">
       <c r="A868" s="1" t="inlineStr">
@@ -21012,6 +23472,9 @@
       <c r="I868" t="n">
         <v>1442</v>
       </c>
+      <c r="J868" t="n">
+        <v>1442</v>
+      </c>
     </row>
     <row r="869">
       <c r="A869" s="1" t="inlineStr">
@@ -21060,6 +23523,9 @@
       <c r="I870" t="n">
         <v>1368</v>
       </c>
+      <c r="J870" t="n">
+        <v>1368</v>
+      </c>
     </row>
     <row r="871">
       <c r="A871" s="1" t="inlineStr">
@@ -21084,6 +23550,9 @@
       <c r="I871" t="n">
         <v>2540</v>
       </c>
+      <c r="J871" t="n">
+        <v>2540</v>
+      </c>
     </row>
     <row r="872">
       <c r="A872" s="1" t="inlineStr">
@@ -21108,6 +23577,9 @@
       <c r="I872" t="n">
         <v>1670</v>
       </c>
+      <c r="J872" t="n">
+        <v>1670</v>
+      </c>
     </row>
     <row r="873">
       <c r="A873" s="1" t="inlineStr">
@@ -21132,6 +23604,9 @@
       <c r="I873" t="n">
         <v>5458</v>
       </c>
+      <c r="J873" t="n">
+        <v>5458</v>
+      </c>
     </row>
     <row r="874">
       <c r="A874" s="1" t="inlineStr">
@@ -21156,6 +23631,9 @@
       <c r="I874" t="n">
         <v>772</v>
       </c>
+      <c r="J874" t="n">
+        <v>772</v>
+      </c>
     </row>
     <row r="875">
       <c r="A875" s="1" t="inlineStr">
@@ -21180,6 +23658,9 @@
       <c r="I875" t="n">
         <v>3460</v>
       </c>
+      <c r="J875" t="n">
+        <v>3460</v>
+      </c>
     </row>
     <row r="876">
       <c r="A876" s="1" t="inlineStr">
@@ -21204,6 +23685,9 @@
       <c r="I876" t="n">
         <v>1878</v>
       </c>
+      <c r="J876" t="n">
+        <v>1878</v>
+      </c>
     </row>
     <row r="877">
       <c r="A877" s="1" t="inlineStr">
@@ -21228,6 +23712,9 @@
       <c r="I877" t="n">
         <v>1520</v>
       </c>
+      <c r="J877" t="n">
+        <v>1520</v>
+      </c>
     </row>
     <row r="878">
       <c r="A878" s="1" t="inlineStr">
@@ -21252,6 +23739,9 @@
       <c r="I878" t="n">
         <v>2120</v>
       </c>
+      <c r="J878" t="n">
+        <v>2120</v>
+      </c>
     </row>
     <row r="879">
       <c r="A879" s="1" t="inlineStr">
@@ -21276,6 +23766,9 @@
       <c r="I879" t="n">
         <v>1034</v>
       </c>
+      <c r="J879" t="n">
+        <v>1034</v>
+      </c>
     </row>
     <row r="880">
       <c r="A880" s="1" t="inlineStr">
@@ -21300,6 +23793,9 @@
       <c r="I880" t="n">
         <v>1509</v>
       </c>
+      <c r="J880" t="n">
+        <v>1509</v>
+      </c>
     </row>
     <row r="881">
       <c r="A881" s="1" t="inlineStr">
@@ -21348,6 +23844,9 @@
       <c r="I882" t="n">
         <v>1028</v>
       </c>
+      <c r="J882" t="n">
+        <v>1028</v>
+      </c>
     </row>
     <row r="883">
       <c r="A883" s="1" t="inlineStr">
@@ -21372,6 +23871,9 @@
       <c r="I883" t="n">
         <v>1310</v>
       </c>
+      <c r="J883" t="n">
+        <v>1310</v>
+      </c>
     </row>
     <row r="884">
       <c r="A884" s="1" t="inlineStr">
@@ -21417,6 +23919,9 @@
       <c r="I885" t="n">
         <v>1385</v>
       </c>
+      <c r="J885" t="n">
+        <v>1385</v>
+      </c>
     </row>
     <row r="886">
       <c r="A886" s="1" t="inlineStr">
@@ -21441,6 +23946,9 @@
       <c r="I886" t="n">
         <v>1242</v>
       </c>
+      <c r="J886" t="n">
+        <v>1242</v>
+      </c>
     </row>
     <row r="887">
       <c r="A887" s="1" t="inlineStr">
@@ -21465,6 +23973,9 @@
       <c r="I887" t="n">
         <v>1049</v>
       </c>
+      <c r="J887" t="n">
+        <v>1049</v>
+      </c>
     </row>
     <row r="888">
       <c r="A888" s="1" t="inlineStr">
@@ -21486,6 +23997,9 @@
       <c r="I888" t="n">
         <v>468</v>
       </c>
+      <c r="J888" t="n">
+        <v>468</v>
+      </c>
     </row>
     <row r="889">
       <c r="A889" s="1" t="inlineStr">
@@ -21510,6 +24024,9 @@
       <c r="I889" t="n">
         <v>2120</v>
       </c>
+      <c r="J889" t="n">
+        <v>2120</v>
+      </c>
     </row>
     <row r="890">
       <c r="A890" s="1" t="inlineStr">
@@ -21534,6 +24051,9 @@
       <c r="I890" t="n">
         <v>908</v>
       </c>
+      <c r="J890" t="n">
+        <v>908</v>
+      </c>
     </row>
     <row r="891">
       <c r="A891" s="1" t="inlineStr">
@@ -21582,6 +24102,9 @@
       <c r="I892" t="n">
         <v>1661</v>
       </c>
+      <c r="J892" t="n">
+        <v>1661</v>
+      </c>
     </row>
     <row r="893">
       <c r="A893" s="1" t="inlineStr">
@@ -21606,6 +24129,9 @@
       <c r="I893" t="n">
         <v>3377</v>
       </c>
+      <c r="J893" t="n">
+        <v>3377</v>
+      </c>
     </row>
     <row r="894">
       <c r="A894" s="1" t="inlineStr">
@@ -21630,6 +24156,9 @@
       <c r="I894" t="n">
         <v>1395</v>
       </c>
+      <c r="J894" t="n">
+        <v>1395</v>
+      </c>
     </row>
     <row r="895">
       <c r="A895" s="1" t="inlineStr">
@@ -21654,6 +24183,9 @@
       <c r="I895" t="n">
         <v>2112</v>
       </c>
+      <c r="J895" t="n">
+        <v>2112</v>
+      </c>
     </row>
     <row r="896">
       <c r="A896" s="1" t="inlineStr">
@@ -21699,6 +24231,9 @@
       <c r="I897" t="n">
         <v>1766</v>
       </c>
+      <c r="J897" t="n">
+        <v>1766</v>
+      </c>
     </row>
     <row r="898">
       <c r="A898" s="1" t="inlineStr">
@@ -21723,6 +24258,9 @@
       <c r="I898" t="n">
         <v>1385</v>
       </c>
+      <c r="J898" t="n">
+        <v>1385</v>
+      </c>
     </row>
     <row r="899">
       <c r="A899" s="1" t="inlineStr">
@@ -21744,6 +24282,9 @@
       <c r="I899" t="n">
         <v>1662</v>
       </c>
+      <c r="J899" t="n">
+        <v>1662</v>
+      </c>
     </row>
     <row r="900">
       <c r="A900" s="1" t="inlineStr">
@@ -21768,6 +24309,9 @@
       <c r="I900" t="n">
         <v>1188</v>
       </c>
+      <c r="J900" t="n">
+        <v>1188</v>
+      </c>
     </row>
     <row r="901">
       <c r="A901" s="1" t="inlineStr">
@@ -21792,6 +24336,9 @@
       <c r="I901" t="n">
         <v>2112</v>
       </c>
+      <c r="J901" t="n">
+        <v>2112</v>
+      </c>
     </row>
     <row r="902">
       <c r="A902" s="1" t="inlineStr">
@@ -21813,6 +24360,9 @@
       <c r="I902" t="n">
         <v>616</v>
       </c>
+      <c r="J902" t="n">
+        <v>616</v>
+      </c>
     </row>
     <row r="903">
       <c r="A903" s="1" t="inlineStr">
@@ -21837,6 +24387,9 @@
       <c r="I903" t="n">
         <v>2120</v>
       </c>
+      <c r="J903" t="n">
+        <v>2120</v>
+      </c>
     </row>
     <row r="904">
       <c r="A904" s="1" t="inlineStr">
@@ -21861,6 +24414,9 @@
       <c r="I904" t="n">
         <v>677</v>
       </c>
+      <c r="J904" t="n">
+        <v>677</v>
+      </c>
     </row>
     <row r="905">
       <c r="A905" s="1" t="inlineStr">
@@ -21885,6 +24441,9 @@
       <c r="I905" t="n">
         <v>1892</v>
       </c>
+      <c r="J905" t="n">
+        <v>1892</v>
+      </c>
     </row>
     <row r="906">
       <c r="A906" s="1" t="inlineStr">
@@ -21909,6 +24468,9 @@
       <c r="I906" t="n">
         <v>1243</v>
       </c>
+      <c r="J906" t="n">
+        <v>1243</v>
+      </c>
     </row>
     <row r="907">
       <c r="A907" s="1" t="inlineStr">
@@ -21933,6 +24495,9 @@
       <c r="I907" t="n">
         <v>2723</v>
       </c>
+      <c r="J907" t="n">
+        <v>2723</v>
+      </c>
     </row>
     <row r="908">
       <c r="A908" s="1" t="inlineStr">
@@ -21957,6 +24522,9 @@
       <c r="I908" t="n">
         <v>1265</v>
       </c>
+      <c r="J908" t="n">
+        <v>1265</v>
+      </c>
     </row>
     <row r="909">
       <c r="A909" s="1" t="inlineStr">
@@ -22002,6 +24570,9 @@
       <c r="I910" t="n">
         <v>2081</v>
       </c>
+      <c r="J910" t="n">
+        <v>2081</v>
+      </c>
     </row>
     <row r="911">
       <c r="A911" s="1" t="inlineStr">
@@ -22026,6 +24597,9 @@
       <c r="I911" t="n">
         <v>1172</v>
       </c>
+      <c r="J911" t="n">
+        <v>1172</v>
+      </c>
     </row>
     <row r="912">
       <c r="A912" s="1" t="inlineStr">
@@ -22050,6 +24624,9 @@
       <c r="I912" t="n">
         <v>1441</v>
       </c>
+      <c r="J912" t="n">
+        <v>1441</v>
+      </c>
     </row>
     <row r="913">
       <c r="A913" s="1" t="inlineStr">
@@ -22074,6 +24651,9 @@
       <c r="I913" t="n">
         <v>935</v>
       </c>
+      <c r="J913" t="n">
+        <v>935</v>
+      </c>
     </row>
     <row r="914">
       <c r="A914" s="1" t="inlineStr">
@@ -22098,6 +24678,9 @@
       <c r="I914" t="n">
         <v>745</v>
       </c>
+      <c r="J914" t="n">
+        <v>745</v>
+      </c>
     </row>
     <row r="915">
       <c r="A915" s="1" t="inlineStr">
@@ -22143,6 +24726,9 @@
       <c r="I916" t="n">
         <v>675</v>
       </c>
+      <c r="J916" t="n">
+        <v>675</v>
+      </c>
     </row>
     <row r="917">
       <c r="A917" s="1" t="inlineStr">
@@ -22167,6 +24753,9 @@
       <c r="I917" t="n">
         <v>1410</v>
       </c>
+      <c r="J917" t="n">
+        <v>1410</v>
+      </c>
     </row>
     <row r="918">
       <c r="A918" s="1" t="inlineStr">
@@ -22191,6 +24780,9 @@
       <c r="I918" t="n">
         <v>818</v>
       </c>
+      <c r="J918" t="n">
+        <v>818</v>
+      </c>
     </row>
     <row r="919">
       <c r="A919" s="1" t="inlineStr">
@@ -22215,6 +24807,9 @@
       <c r="I919" t="n">
         <v>1445</v>
       </c>
+      <c r="J919" t="n">
+        <v>1445</v>
+      </c>
     </row>
     <row r="920">
       <c r="A920" s="1" t="inlineStr">
@@ -22239,6 +24834,9 @@
       <c r="I920" t="n">
         <v>1221</v>
       </c>
+      <c r="J920" t="n">
+        <v>1221</v>
+      </c>
     </row>
     <row r="921">
       <c r="A921" s="1" t="inlineStr">
@@ -22263,6 +24861,9 @@
       <c r="I921" t="n">
         <v>1440</v>
       </c>
+      <c r="J921" t="n">
+        <v>1440</v>
+      </c>
     </row>
     <row r="922">
       <c r="A922" s="1" t="inlineStr">
@@ -22287,6 +24888,9 @@
       <c r="I922" t="n">
         <v>1546</v>
       </c>
+      <c r="J922" t="n">
+        <v>1546</v>
+      </c>
     </row>
     <row r="923">
       <c r="A923" s="1" t="inlineStr">
@@ -22311,6 +24915,9 @@
       <c r="I923" t="n">
         <v>1315</v>
       </c>
+      <c r="J923" t="n">
+        <v>1315</v>
+      </c>
     </row>
     <row r="924">
       <c r="A924" s="1" t="inlineStr">
@@ -22353,6 +24960,9 @@
       <c r="I925" t="n">
         <v>2880</v>
       </c>
+      <c r="J925" t="n">
+        <v>2880</v>
+      </c>
     </row>
     <row r="926">
       <c r="A926" s="1" t="inlineStr">
@@ -22377,6 +24987,9 @@
       <c r="I926" t="n">
         <v>1535</v>
       </c>
+      <c r="J926" t="n">
+        <v>1535</v>
+      </c>
     </row>
     <row r="927">
       <c r="A927" s="1" t="inlineStr">
@@ -22399,6 +25012,9 @@
         <v>1150</v>
       </c>
       <c r="I927" t="n">
+        <v>1150</v>
+      </c>
+      <c r="J927" t="n">
         <v>1150</v>
       </c>
     </row>

--- a/Alkollü içecekler ve tütün.xlsx
+++ b/Alkollü içecekler ve tütün.xlsx
@@ -12499,7 +12499,7 @@
         <v>1815</v>
       </c>
       <c r="J446" t="n">
-        <v>1815</v>
+        <v>1848.2</v>
       </c>
     </row>
     <row r="447">
@@ -12603,6 +12603,9 @@
       <c r="I450" t="n">
         <v>926</v>
       </c>
+      <c r="J450" t="n">
+        <v>926</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" s="1" t="inlineStr">
@@ -12852,6 +12855,9 @@
       <c r="I460" t="n">
         <v>1254</v>
       </c>
+      <c r="J460" t="n">
+        <v>1254</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" s="1" t="inlineStr">
@@ -13989,6 +13995,9 @@
       <c r="I503" t="n">
         <v>1421</v>
       </c>
+      <c r="J503" t="n">
+        <v>1421</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="inlineStr">
@@ -16566,6 +16575,9 @@
       <c r="H602" t="n">
         <v>942</v>
       </c>
+      <c r="J602" t="n">
+        <v>942</v>
+      </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="inlineStr">
@@ -18345,6 +18357,9 @@
       <c r="I673" t="n">
         <v>1122</v>
       </c>
+      <c r="J673" t="n">
+        <v>1122</v>
+      </c>
     </row>
     <row r="674">
       <c r="A674" s="1" t="inlineStr">
@@ -20256,6 +20271,9 @@
       <c r="H746" t="n">
         <v>1045</v>
       </c>
+      <c r="J746" t="n">
+        <v>1045</v>
+      </c>
     </row>
     <row r="747">
       <c r="A747" s="1" t="inlineStr">
@@ -22311,6 +22329,9 @@
       <c r="G824" t="n">
         <v>1062</v>
       </c>
+      <c r="J824" t="n">
+        <v>1062</v>
+      </c>
     </row>
     <row r="825">
       <c r="A825" s="1" t="inlineStr">
@@ -23767,7 +23788,7 @@
         <v>1034</v>
       </c>
       <c r="J879" t="n">
-        <v>1034</v>
+        <v>1106.4</v>
       </c>
     </row>
     <row r="880">
@@ -23794,7 +23815,7 @@
         <v>1509</v>
       </c>
       <c r="J880" t="n">
-        <v>1509</v>
+        <v>1437.4</v>
       </c>
     </row>
     <row r="881">
@@ -24936,6 +24957,9 @@
       <c r="G924" t="n">
         <v>930</v>
       </c>
+      <c r="J924" t="n">
+        <v>930</v>
+      </c>
     </row>
     <row r="925">
       <c r="A925" s="1" t="inlineStr">
@@ -25039,6 +25063,9 @@
         <v>930</v>
       </c>
       <c r="I928" t="n">
+        <v>930</v>
+      </c>
+      <c r="J928" t="n">
         <v>930</v>
       </c>
     </row>
